--- a/市場_2025改修/基本設計_2025/6_画面設計書(システム).xlsx
+++ b/市場_2025改修/基本設計_2025/6_画面設計書(システム).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\Git001\市場_2025改修\基本設計_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\si001\市場_2025改修\基本設計_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EC9DBC-F08D-4D57-96E5-DE5AB28DD318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59A5CA4-DF87-4C7B-BEA2-C095CD6D9590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="888" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="170" r:id="rId1"/>
@@ -1399,6 +1399,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1408,20 +1423,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1429,30 +1447,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1462,6 +1462,66 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1482,66 +1542,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1703,6 +1703,138 @@
         <a:xfrm>
           <a:off x="228600" y="2667000"/>
           <a:ext cx="2828925" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D50DD96-D266-4379-8F50-90CE37DB8A66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="3248025"/>
+          <a:ext cx="4591050" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FFCAF7E-7DBC-4CB7-8547-C5D644491133}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952501" y="1895475"/>
+          <a:ext cx="1657350" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2012,7 +2144,7 @@
   </sheetPr>
   <dimension ref="C1:P23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -2045,50 +2177,50 @@
     </row>
     <row r="6" spans="3:16" ht="22.5" customHeight="1">
       <c r="C6" s="13"/>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
       <c r="N6" s="14"/>
     </row>
     <row r="7" spans="3:16" ht="51" customHeight="1">
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="41"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="38"/>
     </row>
     <row r="8" spans="3:16" ht="39" customHeight="1">
       <c r="C8" s="13"/>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
       <c r="N8" s="14"/>
     </row>
     <row r="9" spans="3:16" ht="22.5" customHeight="1" thickBot="1">
@@ -2111,10 +2243,10 @@
         <v>18</v>
       </c>
       <c r="G12" s="33"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="36"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="41"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
@@ -2137,42 +2269,42 @@
         <v>20</v>
       </c>
       <c r="G14" s="33"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="36"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="41"/>
     </row>
     <row r="15" spans="3:16" ht="22.5" customHeight="1">
       <c r="F15" s="32" t="s">
         <v>21</v>
       </c>
       <c r="G15" s="33"/>
-      <c r="H15" s="34" t="s">
+      <c r="H15" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="36"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="41"/>
     </row>
     <row r="16" spans="3:16" ht="22.5" customHeight="1">
       <c r="F16" s="32" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="33"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="36"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="41"/>
     </row>
     <row r="17" spans="6:16" ht="22.5" customHeight="1">
       <c r="F17" s="32" t="s">
         <v>23</v>
       </c>
       <c r="G17" s="33"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="36"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="41"/>
       <c r="N17" s="7" t="s">
         <v>37</v>
       </c>
@@ -2202,12 +2334,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="C7:N7"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="F14:G14"/>
@@ -2216,6 +2342,12 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:K16"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="C7:N7"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2244,52 +2376,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="46" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
       <c r="P1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
       <c r="P2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" customHeight="1">
       <c r="A3" s="25"/>
@@ -2315,437 +2447,437 @@
       <c r="A4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43" t="s">
+      <c r="C4" s="49"/>
+      <c r="D4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43" t="s">
+      <c r="E4" s="49"/>
+      <c r="F4" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43" t="s">
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" customHeight="1">
       <c r="A5" s="27">
         <v>1</v>
       </c>
-      <c r="B5" s="47">
+      <c r="B5" s="45">
         <v>44621</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="48" t="s">
+      <c r="C5" s="45"/>
+      <c r="D5" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48" t="s">
+      <c r="E5" s="46"/>
+      <c r="F5" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" customHeight="1">
       <c r="A6" s="28">
         <v>2</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="43">
         <v>45870</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="50" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
     </row>
     <row r="7" spans="1:18" ht="27" customHeight="1">
       <c r="A7" s="28">
         <v>3</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
     </row>
     <row r="8" spans="1:18" ht="27" customHeight="1">
       <c r="A8" s="28">
         <v>4</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
     </row>
     <row r="9" spans="1:18" ht="27" customHeight="1">
       <c r="A9" s="28">
         <v>5</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
     </row>
     <row r="10" spans="1:18" ht="27" customHeight="1">
       <c r="A10" s="28">
         <v>6</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
     </row>
     <row r="11" spans="1:18" ht="27" customHeight="1">
       <c r="A11" s="28">
         <v>7</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="44"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
     </row>
     <row r="12" spans="1:18" ht="27" customHeight="1">
       <c r="A12" s="28">
         <v>8</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="44"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
     </row>
     <row r="13" spans="1:18" ht="27" customHeight="1">
       <c r="A13" s="28">
         <v>9</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="44"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
     </row>
     <row r="14" spans="1:18" ht="27" customHeight="1">
       <c r="A14" s="28">
         <v>10</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="44"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
     </row>
     <row r="15" spans="1:18" ht="27" customHeight="1">
       <c r="A15" s="28">
         <v>11</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
     </row>
     <row r="16" spans="1:18" ht="27" customHeight="1">
       <c r="A16" s="28">
         <v>12</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
     </row>
     <row r="17" spans="1:18" ht="27" customHeight="1">
       <c r="A17" s="28">
         <v>13</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
     </row>
     <row r="18" spans="1:18" ht="27" customHeight="1">
       <c r="A18" s="28">
         <v>14</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
     </row>
     <row r="19" spans="1:18" ht="27" customHeight="1">
       <c r="A19" s="28">
         <v>15</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="44"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
     </row>
     <row r="20" spans="1:18" ht="27" customHeight="1">
       <c r="A20" s="28">
         <v>16</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="44"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
     </row>
     <row r="21" spans="1:18" ht="27" customHeight="1">
       <c r="A21" s="28">
         <v>17</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="44"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
     </row>
     <row r="22" spans="1:18" ht="27" customHeight="1">
       <c r="A22" s="28">
         <v>18</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="44"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
     </row>
     <row r="23" spans="1:18" ht="27" customHeight="1"/>
     <row r="24" spans="1:18" ht="27" customHeight="1"/>
@@ -2756,14 +2888,62 @@
     <row r="29" spans="1:18" ht="27" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="I21:R21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:R22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="D1:O2"/>
+    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="I8:R8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:R6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="I11:R11"/>
+    <mergeCell ref="I12:R12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I9:R9"/>
+    <mergeCell ref="I10:R10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I15:R15"/>
+    <mergeCell ref="I16:R16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I13:R13"/>
+    <mergeCell ref="I14:R14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
     <mergeCell ref="I19:R19"/>
     <mergeCell ref="I20:R20"/>
     <mergeCell ref="B17:C17"/>
@@ -2780,62 +2960,14 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I15:R15"/>
-    <mergeCell ref="I16:R16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I13:R13"/>
-    <mergeCell ref="I14:R14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I11:R11"/>
-    <mergeCell ref="I12:R12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I9:R9"/>
-    <mergeCell ref="I10:R10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I8:R8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:R6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I5:R5"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="D1:O2"/>
-    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="I21:R21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:R22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -2851,8 +2983,8 @@
   </sheetPr>
   <dimension ref="A1:BF52"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="V38" sqref="V38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="11.25"/>
@@ -2861,216 +2993,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="30" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="73" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="79" t="str">
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="56" t="str">
         <f>表紙!C7</f>
         <v>施設使用料・償還金等料金計算及び納付書作成システム
 口座振替データ作成機能構築業務</v>
       </c>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
-      <c r="X1" s="80"/>
-      <c r="Y1" s="80"/>
-      <c r="Z1" s="80"/>
-      <c r="AA1" s="80"/>
-      <c r="AB1" s="80"/>
-      <c r="AC1" s="80"/>
-      <c r="AD1" s="80"/>
-      <c r="AE1" s="80"/>
-      <c r="AF1" s="80"/>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="80"/>
-      <c r="AI1" s="81"/>
-      <c r="AJ1" s="77" t="s">
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="AK1" s="77"/>
-      <c r="AL1" s="77"/>
-      <c r="AM1" s="77"/>
-      <c r="AN1" s="77"/>
-      <c r="AO1" s="72" t="s">
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="AP1" s="72"/>
-      <c r="AQ1" s="72"/>
-      <c r="AR1" s="72"/>
-      <c r="AS1" s="72"/>
-      <c r="AT1" s="72"/>
-      <c r="AU1" s="72"/>
-      <c r="AV1" s="77" t="s">
+      <c r="AP1" s="60"/>
+      <c r="AQ1" s="60"/>
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="60"/>
+      <c r="AT1" s="60"/>
+      <c r="AU1" s="60"/>
+      <c r="AV1" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="AW1" s="77"/>
-      <c r="AX1" s="77"/>
-      <c r="AY1" s="77"/>
-      <c r="AZ1" s="77"/>
-      <c r="BA1" s="72" t="s">
+      <c r="AW1" s="59"/>
+      <c r="AX1" s="59"/>
+      <c r="AY1" s="59"/>
+      <c r="AZ1" s="59"/>
+      <c r="BA1" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="BB1" s="72"/>
-      <c r="BC1" s="72"/>
-      <c r="BD1" s="72"/>
-      <c r="BE1" s="72"/>
-      <c r="BF1" s="72"/>
+      <c r="BB1" s="60"/>
+      <c r="BC1" s="60"/>
+      <c r="BD1" s="60"/>
+      <c r="BE1" s="60"/>
+      <c r="BF1" s="60"/>
     </row>
     <row r="2" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="73" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="74" t="s">
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="75"/>
-      <c r="Y2" s="75"/>
-      <c r="Z2" s="75"/>
-      <c r="AA2" s="75"/>
-      <c r="AB2" s="75"/>
-      <c r="AC2" s="75"/>
-      <c r="AD2" s="75"/>
-      <c r="AE2" s="75"/>
-      <c r="AF2" s="75"/>
-      <c r="AG2" s="75"/>
-      <c r="AH2" s="75"/>
-      <c r="AI2" s="76"/>
-      <c r="AJ2" s="77" t="s">
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="62"/>
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="62"/>
+      <c r="AF2" s="62"/>
+      <c r="AG2" s="62"/>
+      <c r="AH2" s="62"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="77"/>
-      <c r="AL2" s="77"/>
-      <c r="AM2" s="77"/>
-      <c r="AN2" s="77"/>
-      <c r="AO2" s="78">
+      <c r="AK2" s="59"/>
+      <c r="AL2" s="59"/>
+      <c r="AM2" s="59"/>
+      <c r="AN2" s="59"/>
+      <c r="AO2" s="64">
         <v>44752</v>
       </c>
-      <c r="AP2" s="72"/>
-      <c r="AQ2" s="72"/>
-      <c r="AR2" s="72"/>
-      <c r="AS2" s="72"/>
-      <c r="AT2" s="72"/>
-      <c r="AU2" s="72"/>
-      <c r="AV2" s="77" t="s">
+      <c r="AP2" s="60"/>
+      <c r="AQ2" s="60"/>
+      <c r="AR2" s="60"/>
+      <c r="AS2" s="60"/>
+      <c r="AT2" s="60"/>
+      <c r="AU2" s="60"/>
+      <c r="AV2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="AW2" s="77"/>
-      <c r="AX2" s="77"/>
-      <c r="AY2" s="77"/>
-      <c r="AZ2" s="77"/>
-      <c r="BA2" s="78">
+      <c r="AW2" s="59"/>
+      <c r="AX2" s="59"/>
+      <c r="AY2" s="59"/>
+      <c r="AZ2" s="59"/>
+      <c r="BA2" s="64">
         <v>45855</v>
       </c>
-      <c r="BB2" s="72"/>
-      <c r="BC2" s="72"/>
-      <c r="BD2" s="72"/>
-      <c r="BE2" s="72"/>
-      <c r="BF2" s="72"/>
+      <c r="BB2" s="60"/>
+      <c r="BC2" s="60"/>
+      <c r="BD2" s="60"/>
+      <c r="BE2" s="60"/>
+      <c r="BF2" s="60"/>
     </row>
     <row r="3" spans="1:58" ht="15" customHeight="1">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="64"/>
-      <c r="AD3" s="64"/>
-      <c r="AE3" s="64"/>
-      <c r="AF3" s="64"/>
-      <c r="AG3" s="64"/>
-      <c r="AH3" s="64"/>
-      <c r="AI3" s="64"/>
-      <c r="AJ3" s="64"/>
-      <c r="AK3" s="64"/>
-      <c r="AL3" s="64"/>
-      <c r="AM3" s="64"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="63" t="s">
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="66"/>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66"/>
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="66"/>
+      <c r="AK3" s="66"/>
+      <c r="AL3" s="66"/>
+      <c r="AM3" s="66"/>
+      <c r="AN3" s="67"/>
+      <c r="AO3" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="AP3" s="64"/>
-      <c r="AQ3" s="64"/>
-      <c r="AR3" s="64"/>
-      <c r="AS3" s="64"/>
-      <c r="AT3" s="64"/>
-      <c r="AU3" s="64"/>
-      <c r="AV3" s="64"/>
-      <c r="AW3" s="64"/>
-      <c r="AX3" s="64"/>
-      <c r="AY3" s="64"/>
-      <c r="AZ3" s="64"/>
-      <c r="BA3" s="64"/>
-      <c r="BB3" s="64"/>
-      <c r="BC3" s="64"/>
-      <c r="BD3" s="64"/>
-      <c r="BE3" s="64"/>
-      <c r="BF3" s="65"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="66"/>
+      <c r="AR3" s="66"/>
+      <c r="AS3" s="66"/>
+      <c r="AT3" s="66"/>
+      <c r="AU3" s="66"/>
+      <c r="AV3" s="66"/>
+      <c r="AW3" s="66"/>
+      <c r="AX3" s="66"/>
+      <c r="AY3" s="66"/>
+      <c r="AZ3" s="66"/>
+      <c r="BA3" s="66"/>
+      <c r="BB3" s="66"/>
+      <c r="BC3" s="66"/>
+      <c r="BD3" s="66"/>
+      <c r="BE3" s="66"/>
+      <c r="BF3" s="67"/>
     </row>
     <row r="4" spans="1:58">
       <c r="A4" s="2"/>
@@ -3084,11 +3216,11 @@
       <c r="AO5" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="AP5" s="44"/>
-      <c r="AQ5" s="44"/>
-      <c r="AR5" s="44"/>
-      <c r="AS5" s="44"/>
-      <c r="AT5" s="44"/>
+      <c r="AP5" s="42"/>
+      <c r="AQ5" s="42"/>
+      <c r="AR5" s="42"/>
+      <c r="AS5" s="42"/>
+      <c r="AT5" s="42"/>
       <c r="AU5" s="53" t="s">
         <v>60</v>
       </c>
@@ -3108,11 +3240,11 @@
       <c r="A6" s="2"/>
       <c r="AN6" s="3"/>
       <c r="AO6" s="52"/>
-      <c r="AP6" s="44"/>
-      <c r="AQ6" s="44"/>
-      <c r="AR6" s="44"/>
-      <c r="AS6" s="44"/>
-      <c r="AT6" s="44"/>
+      <c r="AP6" s="42"/>
+      <c r="AQ6" s="42"/>
+      <c r="AR6" s="42"/>
+      <c r="AS6" s="42"/>
+      <c r="AT6" s="42"/>
       <c r="AU6" s="53"/>
       <c r="AV6" s="53"/>
       <c r="AW6" s="53"/>
@@ -3129,14 +3261,14 @@
     <row r="7" spans="1:58">
       <c r="A7" s="2"/>
       <c r="AN7" s="3"/>
-      <c r="AO7" s="66" t="s">
+      <c r="AO7" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="AP7" s="67"/>
-      <c r="AQ7" s="67"/>
-      <c r="AR7" s="67"/>
-      <c r="AS7" s="67"/>
-      <c r="AT7" s="68"/>
+      <c r="AP7" s="69"/>
+      <c r="AQ7" s="69"/>
+      <c r="AR7" s="69"/>
+      <c r="AS7" s="69"/>
+      <c r="AT7" s="70"/>
       <c r="AU7" s="53" t="s">
         <v>42</v>
       </c>
@@ -3155,12 +3287,12 @@
     <row r="8" spans="1:58">
       <c r="A8" s="2"/>
       <c r="AN8" s="3"/>
-      <c r="AO8" s="69"/>
-      <c r="AP8" s="70"/>
-      <c r="AQ8" s="70"/>
-      <c r="AR8" s="70"/>
-      <c r="AS8" s="70"/>
-      <c r="AT8" s="71"/>
+      <c r="AO8" s="71"/>
+      <c r="AP8" s="72"/>
+      <c r="AQ8" s="72"/>
+      <c r="AR8" s="72"/>
+      <c r="AS8" s="72"/>
+      <c r="AT8" s="73"/>
       <c r="AU8" s="53"/>
       <c r="AV8" s="53"/>
       <c r="AW8" s="53"/>
@@ -3180,11 +3312,11 @@
       <c r="AO9" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="AP9" s="44"/>
-      <c r="AQ9" s="44"/>
-      <c r="AR9" s="44"/>
-      <c r="AS9" s="44"/>
-      <c r="AT9" s="44"/>
+      <c r="AP9" s="42"/>
+      <c r="AQ9" s="42"/>
+      <c r="AR9" s="42"/>
+      <c r="AS9" s="42"/>
+      <c r="AT9" s="42"/>
       <c r="AU9" s="53" t="s">
         <v>33</v>
       </c>
@@ -3204,11 +3336,11 @@
       <c r="A10" s="2"/>
       <c r="AN10" s="3"/>
       <c r="AO10" s="52"/>
-      <c r="AP10" s="44"/>
-      <c r="AQ10" s="44"/>
-      <c r="AR10" s="44"/>
-      <c r="AS10" s="44"/>
-      <c r="AT10" s="44"/>
+      <c r="AP10" s="42"/>
+      <c r="AQ10" s="42"/>
+      <c r="AR10" s="42"/>
+      <c r="AS10" s="42"/>
+      <c r="AT10" s="42"/>
       <c r="AU10" s="53"/>
       <c r="AV10" s="53"/>
       <c r="AW10" s="53"/>
@@ -3228,11 +3360,11 @@
       <c r="AO11" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="AP11" s="44"/>
-      <c r="AQ11" s="44"/>
-      <c r="AR11" s="44"/>
-      <c r="AS11" s="44"/>
-      <c r="AT11" s="44"/>
+      <c r="AP11" s="42"/>
+      <c r="AQ11" s="42"/>
+      <c r="AR11" s="42"/>
+      <c r="AS11" s="42"/>
+      <c r="AT11" s="42"/>
       <c r="AU11" s="53" t="s">
         <v>34</v>
       </c>
@@ -3252,11 +3384,11 @@
       <c r="A12" s="2"/>
       <c r="AN12" s="3"/>
       <c r="AO12" s="52"/>
-      <c r="AP12" s="44"/>
-      <c r="AQ12" s="44"/>
-      <c r="AR12" s="44"/>
-      <c r="AS12" s="44"/>
-      <c r="AT12" s="44"/>
+      <c r="AP12" s="42"/>
+      <c r="AQ12" s="42"/>
+      <c r="AR12" s="42"/>
+      <c r="AS12" s="42"/>
+      <c r="AT12" s="42"/>
       <c r="AU12" s="53"/>
       <c r="AV12" s="53"/>
       <c r="AW12" s="53"/>
@@ -3276,11 +3408,11 @@
       <c r="AO13" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="AP13" s="44"/>
-      <c r="AQ13" s="44"/>
-      <c r="AR13" s="44"/>
-      <c r="AS13" s="44"/>
-      <c r="AT13" s="44"/>
+      <c r="AP13" s="42"/>
+      <c r="AQ13" s="42"/>
+      <c r="AR13" s="42"/>
+      <c r="AS13" s="42"/>
+      <c r="AT13" s="42"/>
       <c r="AU13" s="53" t="s">
         <v>35</v>
       </c>
@@ -3300,11 +3432,11 @@
       <c r="A14" s="2"/>
       <c r="AN14" s="3"/>
       <c r="AO14" s="52"/>
-      <c r="AP14" s="44"/>
-      <c r="AQ14" s="44"/>
-      <c r="AR14" s="44"/>
-      <c r="AS14" s="44"/>
-      <c r="AT14" s="44"/>
+      <c r="AP14" s="42"/>
+      <c r="AQ14" s="42"/>
+      <c r="AR14" s="42"/>
+      <c r="AS14" s="42"/>
+      <c r="AT14" s="42"/>
       <c r="AU14" s="53"/>
       <c r="AV14" s="53"/>
       <c r="AW14" s="53"/>
@@ -3324,11 +3456,11 @@
       <c r="AO15" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="AP15" s="44"/>
-      <c r="AQ15" s="44"/>
-      <c r="AR15" s="44"/>
-      <c r="AS15" s="44"/>
-      <c r="AT15" s="44"/>
+      <c r="AP15" s="42"/>
+      <c r="AQ15" s="42"/>
+      <c r="AR15" s="42"/>
+      <c r="AS15" s="42"/>
+      <c r="AT15" s="42"/>
       <c r="AU15" s="53" t="s">
         <v>75</v>
       </c>
@@ -3348,11 +3480,11 @@
       <c r="A16" s="2"/>
       <c r="AN16" s="3"/>
       <c r="AO16" s="52"/>
-      <c r="AP16" s="44"/>
-      <c r="AQ16" s="44"/>
-      <c r="AR16" s="44"/>
-      <c r="AS16" s="44"/>
-      <c r="AT16" s="44"/>
+      <c r="AP16" s="42"/>
+      <c r="AQ16" s="42"/>
+      <c r="AR16" s="42"/>
+      <c r="AS16" s="42"/>
+      <c r="AT16" s="42"/>
       <c r="AU16" s="53"/>
       <c r="AV16" s="53"/>
       <c r="AW16" s="53"/>
@@ -3372,11 +3504,11 @@
       <c r="AO17" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="AP17" s="44"/>
-      <c r="AQ17" s="44"/>
-      <c r="AR17" s="44"/>
-      <c r="AS17" s="44"/>
-      <c r="AT17" s="44"/>
+      <c r="AP17" s="42"/>
+      <c r="AQ17" s="42"/>
+      <c r="AR17" s="42"/>
+      <c r="AS17" s="42"/>
+      <c r="AT17" s="42"/>
       <c r="AU17" s="53" t="s">
         <v>36</v>
       </c>
@@ -3396,11 +3528,11 @@
       <c r="A18" s="2"/>
       <c r="AN18" s="3"/>
       <c r="AO18" s="52"/>
-      <c r="AP18" s="44"/>
-      <c r="AQ18" s="44"/>
-      <c r="AR18" s="44"/>
-      <c r="AS18" s="44"/>
-      <c r="AT18" s="44"/>
+      <c r="AP18" s="42"/>
+      <c r="AQ18" s="42"/>
+      <c r="AR18" s="42"/>
+      <c r="AS18" s="42"/>
+      <c r="AT18" s="42"/>
       <c r="AU18" s="53"/>
       <c r="AV18" s="53"/>
       <c r="AW18" s="53"/>
@@ -3420,11 +3552,11 @@
       <c r="AO19" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="AP19" s="44"/>
-      <c r="AQ19" s="44"/>
-      <c r="AR19" s="44"/>
-      <c r="AS19" s="44"/>
-      <c r="AT19" s="44"/>
+      <c r="AP19" s="42"/>
+      <c r="AQ19" s="42"/>
+      <c r="AR19" s="42"/>
+      <c r="AS19" s="42"/>
+      <c r="AT19" s="42"/>
       <c r="AU19" s="53" t="s">
         <v>73</v>
       </c>
@@ -3444,11 +3576,11 @@
       <c r="A20" s="2"/>
       <c r="AN20" s="3"/>
       <c r="AO20" s="52"/>
-      <c r="AP20" s="44"/>
-      <c r="AQ20" s="44"/>
-      <c r="AR20" s="44"/>
-      <c r="AS20" s="44"/>
-      <c r="AT20" s="44"/>
+      <c r="AP20" s="42"/>
+      <c r="AQ20" s="42"/>
+      <c r="AR20" s="42"/>
+      <c r="AS20" s="42"/>
+      <c r="AT20" s="42"/>
       <c r="AU20" s="53"/>
       <c r="AV20" s="53"/>
       <c r="AW20" s="53"/>
@@ -3468,11 +3600,11 @@
       <c r="AO21" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="AP21" s="44"/>
-      <c r="AQ21" s="44"/>
-      <c r="AR21" s="44"/>
-      <c r="AS21" s="44"/>
-      <c r="AT21" s="44"/>
+      <c r="AP21" s="42"/>
+      <c r="AQ21" s="42"/>
+      <c r="AR21" s="42"/>
+      <c r="AS21" s="42"/>
+      <c r="AT21" s="42"/>
       <c r="AU21" s="53" t="s">
         <v>72</v>
       </c>
@@ -3492,11 +3624,11 @@
       <c r="A22" s="2"/>
       <c r="AN22" s="3"/>
       <c r="AO22" s="52"/>
-      <c r="AP22" s="44"/>
-      <c r="AQ22" s="44"/>
-      <c r="AR22" s="44"/>
-      <c r="AS22" s="44"/>
-      <c r="AT22" s="44"/>
+      <c r="AP22" s="42"/>
+      <c r="AQ22" s="42"/>
+      <c r="AR22" s="42"/>
+      <c r="AS22" s="42"/>
+      <c r="AT22" s="42"/>
       <c r="AU22" s="53"/>
       <c r="AV22" s="53"/>
       <c r="AW22" s="53"/>
@@ -3516,11 +3648,11 @@
       <c r="AO23" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="AP23" s="44"/>
-      <c r="AQ23" s="44"/>
-      <c r="AR23" s="44"/>
-      <c r="AS23" s="44"/>
-      <c r="AT23" s="44"/>
+      <c r="AP23" s="42"/>
+      <c r="AQ23" s="42"/>
+      <c r="AR23" s="42"/>
+      <c r="AS23" s="42"/>
+      <c r="AT23" s="42"/>
       <c r="AU23" s="53" t="s">
         <v>70</v>
       </c>
@@ -3540,11 +3672,11 @@
       <c r="A24" s="2"/>
       <c r="AN24" s="3"/>
       <c r="AO24" s="52"/>
-      <c r="AP24" s="44"/>
-      <c r="AQ24" s="44"/>
-      <c r="AR24" s="44"/>
-      <c r="AS24" s="44"/>
-      <c r="AT24" s="44"/>
+      <c r="AP24" s="42"/>
+      <c r="AQ24" s="42"/>
+      <c r="AR24" s="42"/>
+      <c r="AS24" s="42"/>
+      <c r="AT24" s="42"/>
       <c r="AU24" s="53"/>
       <c r="AV24" s="53"/>
       <c r="AW24" s="53"/>
@@ -3561,14 +3693,14 @@
     <row r="25" spans="1:58" ht="11.25" customHeight="1">
       <c r="A25" s="2"/>
       <c r="AN25" s="3"/>
-      <c r="AO25" s="66" t="s">
+      <c r="AO25" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="AP25" s="67"/>
-      <c r="AQ25" s="67"/>
-      <c r="AR25" s="67"/>
-      <c r="AS25" s="67"/>
-      <c r="AT25" s="68"/>
+      <c r="AP25" s="69"/>
+      <c r="AQ25" s="69"/>
+      <c r="AR25" s="69"/>
+      <c r="AS25" s="69"/>
+      <c r="AT25" s="70"/>
       <c r="AU25" s="53" t="s">
         <v>45</v>
       </c>
@@ -3587,12 +3719,12 @@
     <row r="26" spans="1:58">
       <c r="A26" s="2"/>
       <c r="AN26" s="3"/>
-      <c r="AO26" s="69"/>
-      <c r="AP26" s="70"/>
-      <c r="AQ26" s="70"/>
-      <c r="AR26" s="70"/>
-      <c r="AS26" s="70"/>
-      <c r="AT26" s="71"/>
+      <c r="AO26" s="71"/>
+      <c r="AP26" s="72"/>
+      <c r="AQ26" s="72"/>
+      <c r="AR26" s="72"/>
+      <c r="AS26" s="72"/>
+      <c r="AT26" s="73"/>
       <c r="AU26" s="53"/>
       <c r="AV26" s="53"/>
       <c r="AW26" s="53"/>
@@ -3612,11 +3744,11 @@
       <c r="AO27" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="AP27" s="44"/>
-      <c r="AQ27" s="44"/>
-      <c r="AR27" s="44"/>
-      <c r="AS27" s="44"/>
-      <c r="AT27" s="44"/>
+      <c r="AP27" s="42"/>
+      <c r="AQ27" s="42"/>
+      <c r="AR27" s="42"/>
+      <c r="AS27" s="42"/>
+      <c r="AT27" s="42"/>
       <c r="AU27" s="53" t="s">
         <v>44</v>
       </c>
@@ -3636,11 +3768,11 @@
       <c r="A28" s="2"/>
       <c r="AN28" s="3"/>
       <c r="AO28" s="52"/>
-      <c r="AP28" s="44"/>
-      <c r="AQ28" s="44"/>
-      <c r="AR28" s="44"/>
-      <c r="AS28" s="44"/>
-      <c r="AT28" s="44"/>
+      <c r="AP28" s="42"/>
+      <c r="AQ28" s="42"/>
+      <c r="AR28" s="42"/>
+      <c r="AS28" s="42"/>
+      <c r="AT28" s="42"/>
       <c r="AU28" s="53"/>
       <c r="AV28" s="53"/>
       <c r="AW28" s="53"/>
@@ -3660,11 +3792,11 @@
       <c r="AO29" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="AP29" s="44"/>
-      <c r="AQ29" s="44"/>
-      <c r="AR29" s="44"/>
-      <c r="AS29" s="44"/>
-      <c r="AT29" s="44"/>
+      <c r="AP29" s="42"/>
+      <c r="AQ29" s="42"/>
+      <c r="AR29" s="42"/>
+      <c r="AS29" s="42"/>
+      <c r="AT29" s="42"/>
       <c r="AU29" s="53" t="s">
         <v>66</v>
       </c>
@@ -3684,11 +3816,11 @@
       <c r="A30" s="2"/>
       <c r="AN30" s="3"/>
       <c r="AO30" s="52"/>
-      <c r="AP30" s="44"/>
-      <c r="AQ30" s="44"/>
-      <c r="AR30" s="44"/>
-      <c r="AS30" s="44"/>
-      <c r="AT30" s="44"/>
+      <c r="AP30" s="42"/>
+      <c r="AQ30" s="42"/>
+      <c r="AR30" s="42"/>
+      <c r="AS30" s="42"/>
+      <c r="AT30" s="42"/>
       <c r="AU30" s="53"/>
       <c r="AV30" s="53"/>
       <c r="AW30" s="53"/>
@@ -3708,11 +3840,11 @@
       <c r="AO31" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="AP31" s="44"/>
-      <c r="AQ31" s="44"/>
-      <c r="AR31" s="44"/>
-      <c r="AS31" s="44"/>
-      <c r="AT31" s="44"/>
+      <c r="AP31" s="42"/>
+      <c r="AQ31" s="42"/>
+      <c r="AR31" s="42"/>
+      <c r="AS31" s="42"/>
+      <c r="AT31" s="42"/>
       <c r="AU31" s="53" t="s">
         <v>67</v>
       </c>
@@ -3732,11 +3864,11 @@
       <c r="A32" s="2"/>
       <c r="AN32" s="3"/>
       <c r="AO32" s="52"/>
-      <c r="AP32" s="44"/>
-      <c r="AQ32" s="44"/>
-      <c r="AR32" s="44"/>
-      <c r="AS32" s="44"/>
-      <c r="AT32" s="44"/>
+      <c r="AP32" s="42"/>
+      <c r="AQ32" s="42"/>
+      <c r="AR32" s="42"/>
+      <c r="AS32" s="42"/>
+      <c r="AT32" s="42"/>
       <c r="AU32" s="53"/>
       <c r="AV32" s="53"/>
       <c r="AW32" s="53"/>
@@ -3756,11 +3888,11 @@
       <c r="AO33" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="AP33" s="44"/>
-      <c r="AQ33" s="44"/>
-      <c r="AR33" s="44"/>
-      <c r="AS33" s="44"/>
-      <c r="AT33" s="44"/>
+      <c r="AP33" s="42"/>
+      <c r="AQ33" s="42"/>
+      <c r="AR33" s="42"/>
+      <c r="AS33" s="42"/>
+      <c r="AT33" s="42"/>
       <c r="AU33" s="53" t="s">
         <v>43</v>
       </c>
@@ -3780,11 +3912,11 @@
       <c r="A34" s="2"/>
       <c r="AN34" s="3"/>
       <c r="AO34" s="52"/>
-      <c r="AP34" s="44"/>
-      <c r="AQ34" s="44"/>
-      <c r="AR34" s="44"/>
-      <c r="AS34" s="44"/>
-      <c r="AT34" s="44"/>
+      <c r="AP34" s="42"/>
+      <c r="AQ34" s="42"/>
+      <c r="AR34" s="42"/>
+      <c r="AS34" s="42"/>
+      <c r="AT34" s="42"/>
       <c r="AU34" s="53"/>
       <c r="AV34" s="53"/>
       <c r="AW34" s="53"/>
@@ -3804,11 +3936,11 @@
       <c r="AO35" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="AP35" s="44"/>
-      <c r="AQ35" s="44"/>
-      <c r="AR35" s="44"/>
-      <c r="AS35" s="44"/>
-      <c r="AT35" s="44"/>
+      <c r="AP35" s="42"/>
+      <c r="AQ35" s="42"/>
+      <c r="AR35" s="42"/>
+      <c r="AS35" s="42"/>
+      <c r="AT35" s="42"/>
       <c r="AU35" s="53" t="s">
         <v>43</v>
       </c>
@@ -3828,11 +3960,11 @@
       <c r="A36" s="2"/>
       <c r="AN36" s="3"/>
       <c r="AO36" s="52"/>
-      <c r="AP36" s="44"/>
-      <c r="AQ36" s="44"/>
-      <c r="AR36" s="44"/>
-      <c r="AS36" s="44"/>
-      <c r="AT36" s="44"/>
+      <c r="AP36" s="42"/>
+      <c r="AQ36" s="42"/>
+      <c r="AR36" s="42"/>
+      <c r="AS36" s="42"/>
+      <c r="AT36" s="42"/>
       <c r="AU36" s="53"/>
       <c r="AV36" s="53"/>
       <c r="AW36" s="53"/>
@@ -3852,11 +3984,11 @@
       <c r="AO37" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="AP37" s="44"/>
-      <c r="AQ37" s="44"/>
-      <c r="AR37" s="44"/>
-      <c r="AS37" s="44"/>
-      <c r="AT37" s="44"/>
+      <c r="AP37" s="42"/>
+      <c r="AQ37" s="42"/>
+      <c r="AR37" s="42"/>
+      <c r="AS37" s="42"/>
+      <c r="AT37" s="42"/>
       <c r="AU37" s="53" t="s">
         <v>43</v>
       </c>
@@ -3876,11 +4008,11 @@
       <c r="A38" s="2"/>
       <c r="AN38" s="3"/>
       <c r="AO38" s="52"/>
-      <c r="AP38" s="44"/>
-      <c r="AQ38" s="44"/>
-      <c r="AR38" s="44"/>
-      <c r="AS38" s="44"/>
-      <c r="AT38" s="44"/>
+      <c r="AP38" s="42"/>
+      <c r="AQ38" s="42"/>
+      <c r="AR38" s="42"/>
+      <c r="AS38" s="42"/>
+      <c r="AT38" s="42"/>
       <c r="AU38" s="53"/>
       <c r="AV38" s="53"/>
       <c r="AW38" s="53"/>
@@ -3900,11 +4032,11 @@
       <c r="AO39" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="AP39" s="44"/>
-      <c r="AQ39" s="44"/>
-      <c r="AR39" s="44"/>
-      <c r="AS39" s="44"/>
-      <c r="AT39" s="44"/>
+      <c r="AP39" s="42"/>
+      <c r="AQ39" s="42"/>
+      <c r="AR39" s="42"/>
+      <c r="AS39" s="42"/>
+      <c r="AT39" s="42"/>
       <c r="AU39" s="53" t="s">
         <v>43</v>
       </c>
@@ -3924,11 +4056,11 @@
       <c r="A40" s="2"/>
       <c r="AN40" s="3"/>
       <c r="AO40" s="52"/>
-      <c r="AP40" s="44"/>
-      <c r="AQ40" s="44"/>
-      <c r="AR40" s="44"/>
-      <c r="AS40" s="44"/>
-      <c r="AT40" s="44"/>
+      <c r="AP40" s="42"/>
+      <c r="AQ40" s="42"/>
+      <c r="AR40" s="42"/>
+      <c r="AS40" s="42"/>
+      <c r="AT40" s="42"/>
       <c r="AU40" s="53"/>
       <c r="AV40" s="53"/>
       <c r="AW40" s="53"/>
@@ -3945,7 +4077,7 @@
     <row r="41" spans="1:58" ht="11.25" customHeight="1">
       <c r="A41" s="2"/>
       <c r="AN41" s="3"/>
-      <c r="AO41" s="62" t="s">
+      <c r="AO41" s="74" t="s">
         <v>61</v>
       </c>
       <c r="AP41" s="53"/>
@@ -3971,7 +4103,7 @@
     <row r="42" spans="1:58">
       <c r="A42" s="2"/>
       <c r="AN42" s="3"/>
-      <c r="AO42" s="62"/>
+      <c r="AO42" s="74"/>
       <c r="AP42" s="53"/>
       <c r="AQ42" s="53"/>
       <c r="AR42" s="53"/>
@@ -3996,11 +4128,11 @@
       <c r="AO43" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="AP43" s="44"/>
-      <c r="AQ43" s="44"/>
-      <c r="AR43" s="44"/>
-      <c r="AS43" s="44"/>
-      <c r="AT43" s="44"/>
+      <c r="AP43" s="42"/>
+      <c r="AQ43" s="42"/>
+      <c r="AR43" s="42"/>
+      <c r="AS43" s="42"/>
+      <c r="AT43" s="42"/>
       <c r="AU43" s="53" t="s">
         <v>51</v>
       </c>
@@ -4020,11 +4152,11 @@
       <c r="A44" s="2"/>
       <c r="AN44" s="3"/>
       <c r="AO44" s="52"/>
-      <c r="AP44" s="44"/>
-      <c r="AQ44" s="44"/>
-      <c r="AR44" s="44"/>
-      <c r="AS44" s="44"/>
-      <c r="AT44" s="44"/>
+      <c r="AP44" s="42"/>
+      <c r="AQ44" s="42"/>
+      <c r="AR44" s="42"/>
+      <c r="AS44" s="42"/>
+      <c r="AT44" s="42"/>
       <c r="AU44" s="53"/>
       <c r="AV44" s="53"/>
       <c r="AW44" s="53"/>
@@ -4044,11 +4176,11 @@
       <c r="AO45" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="AP45" s="44"/>
-      <c r="AQ45" s="44"/>
-      <c r="AR45" s="44"/>
-      <c r="AS45" s="44"/>
-      <c r="AT45" s="44"/>
+      <c r="AP45" s="42"/>
+      <c r="AQ45" s="42"/>
+      <c r="AR45" s="42"/>
+      <c r="AS45" s="42"/>
+      <c r="AT45" s="42"/>
       <c r="AU45" s="53" t="s">
         <v>62</v>
       </c>
@@ -4068,11 +4200,11 @@
       <c r="A46" s="2"/>
       <c r="AN46" s="3"/>
       <c r="AO46" s="52"/>
-      <c r="AP46" s="44"/>
-      <c r="AQ46" s="44"/>
-      <c r="AR46" s="44"/>
-      <c r="AS46" s="44"/>
-      <c r="AT46" s="44"/>
+      <c r="AP46" s="42"/>
+      <c r="AQ46" s="42"/>
+      <c r="AR46" s="42"/>
+      <c r="AS46" s="42"/>
+      <c r="AT46" s="42"/>
       <c r="AU46" s="53"/>
       <c r="AV46" s="53"/>
       <c r="AW46" s="53"/>
@@ -4092,11 +4224,11 @@
       <c r="AO47" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="AP47" s="44"/>
-      <c r="AQ47" s="44"/>
-      <c r="AR47" s="44"/>
-      <c r="AS47" s="44"/>
-      <c r="AT47" s="44"/>
+      <c r="AP47" s="42"/>
+      <c r="AQ47" s="42"/>
+      <c r="AR47" s="42"/>
+      <c r="AS47" s="42"/>
+      <c r="AT47" s="42"/>
       <c r="AU47" s="53" t="s">
         <v>63</v>
       </c>
@@ -4116,11 +4248,11 @@
       <c r="A48" s="2"/>
       <c r="AN48" s="3"/>
       <c r="AO48" s="52"/>
-      <c r="AP48" s="44"/>
-      <c r="AQ48" s="44"/>
-      <c r="AR48" s="44"/>
-      <c r="AS48" s="44"/>
-      <c r="AT48" s="44"/>
+      <c r="AP48" s="42"/>
+      <c r="AQ48" s="42"/>
+      <c r="AR48" s="42"/>
+      <c r="AS48" s="42"/>
+      <c r="AT48" s="42"/>
       <c r="AU48" s="53"/>
       <c r="AV48" s="53"/>
       <c r="AW48" s="53"/>
@@ -4140,11 +4272,11 @@
       <c r="AO49" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="AP49" s="44"/>
-      <c r="AQ49" s="44"/>
-      <c r="AR49" s="44"/>
-      <c r="AS49" s="44"/>
-      <c r="AT49" s="44"/>
+      <c r="AP49" s="42"/>
+      <c r="AQ49" s="42"/>
+      <c r="AR49" s="42"/>
+      <c r="AS49" s="42"/>
+      <c r="AT49" s="42"/>
       <c r="AU49" s="53" t="s">
         <v>57</v>
       </c>
@@ -4164,11 +4296,11 @@
       <c r="A50" s="2"/>
       <c r="AN50" s="3"/>
       <c r="AO50" s="52"/>
-      <c r="AP50" s="44"/>
-      <c r="AQ50" s="44"/>
-      <c r="AR50" s="44"/>
-      <c r="AS50" s="44"/>
-      <c r="AT50" s="44"/>
+      <c r="AP50" s="42"/>
+      <c r="AQ50" s="42"/>
+      <c r="AR50" s="42"/>
+      <c r="AS50" s="42"/>
+      <c r="AT50" s="42"/>
       <c r="AU50" s="53"/>
       <c r="AV50" s="53"/>
       <c r="AW50" s="53"/>
@@ -4185,28 +4317,28 @@
     <row r="51" spans="1:58">
       <c r="A51" s="2"/>
       <c r="AN51" s="3"/>
-      <c r="AO51" s="55" t="s">
+      <c r="AO51" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="AP51" s="51"/>
-      <c r="AQ51" s="51"/>
-      <c r="AR51" s="51"/>
-      <c r="AS51" s="51"/>
-      <c r="AT51" s="51"/>
-      <c r="AU51" s="58" t="s">
+      <c r="AP51" s="47"/>
+      <c r="AQ51" s="47"/>
+      <c r="AR51" s="47"/>
+      <c r="AS51" s="47"/>
+      <c r="AT51" s="47"/>
+      <c r="AU51" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="AV51" s="58"/>
-      <c r="AW51" s="58"/>
-      <c r="AX51" s="58"/>
-      <c r="AY51" s="58"/>
-      <c r="AZ51" s="58"/>
-      <c r="BA51" s="58"/>
-      <c r="BB51" s="58"/>
-      <c r="BC51" s="58"/>
-      <c r="BD51" s="58"/>
-      <c r="BE51" s="58"/>
-      <c r="BF51" s="59"/>
+      <c r="AV51" s="78"/>
+      <c r="AW51" s="78"/>
+      <c r="AX51" s="78"/>
+      <c r="AY51" s="78"/>
+      <c r="AZ51" s="78"/>
+      <c r="BA51" s="78"/>
+      <c r="BB51" s="78"/>
+      <c r="BC51" s="78"/>
+      <c r="BD51" s="78"/>
+      <c r="BE51" s="78"/>
+      <c r="BF51" s="79"/>
     </row>
     <row r="52" spans="1:58">
       <c r="A52" s="4"/>
@@ -4249,53 +4381,48 @@
       <c r="AL52" s="5"/>
       <c r="AM52" s="5"/>
       <c r="AN52" s="6"/>
-      <c r="AO52" s="56"/>
-      <c r="AP52" s="57"/>
-      <c r="AQ52" s="57"/>
-      <c r="AR52" s="57"/>
-      <c r="AS52" s="57"/>
-      <c r="AT52" s="57"/>
-      <c r="AU52" s="60"/>
-      <c r="AV52" s="60"/>
-      <c r="AW52" s="60"/>
-      <c r="AX52" s="60"/>
-      <c r="AY52" s="60"/>
-      <c r="AZ52" s="60"/>
-      <c r="BA52" s="60"/>
-      <c r="BB52" s="60"/>
-      <c r="BC52" s="60"/>
-      <c r="BD52" s="60"/>
-      <c r="BE52" s="60"/>
-      <c r="BF52" s="61"/>
+      <c r="AO52" s="76"/>
+      <c r="AP52" s="77"/>
+      <c r="AQ52" s="77"/>
+      <c r="AR52" s="77"/>
+      <c r="AS52" s="77"/>
+      <c r="AT52" s="77"/>
+      <c r="AU52" s="80"/>
+      <c r="AV52" s="80"/>
+      <c r="AW52" s="80"/>
+      <c r="AX52" s="80"/>
+      <c r="AY52" s="80"/>
+      <c r="AZ52" s="80"/>
+      <c r="BA52" s="80"/>
+      <c r="BB52" s="80"/>
+      <c r="BC52" s="80"/>
+      <c r="BD52" s="80"/>
+      <c r="BE52" s="80"/>
+      <c r="BF52" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="AO27:AT28"/>
-    <mergeCell ref="AU27:BF28"/>
-    <mergeCell ref="AO37:AT38"/>
-    <mergeCell ref="AU37:BF38"/>
-    <mergeCell ref="AO5:AT6"/>
-    <mergeCell ref="AU5:BF6"/>
-    <mergeCell ref="AO13:AT14"/>
-    <mergeCell ref="AO15:AT16"/>
-    <mergeCell ref="AO17:AT18"/>
-    <mergeCell ref="AO19:AT20"/>
-    <mergeCell ref="AU23:BF24"/>
-    <mergeCell ref="AO23:AT24"/>
-    <mergeCell ref="AO29:AT30"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="U1:AI1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AO1:AU1"/>
-    <mergeCell ref="BA1:BF1"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="U2:AI2"/>
-    <mergeCell ref="AJ2:AN2"/>
-    <mergeCell ref="AO2:AU2"/>
-    <mergeCell ref="AV2:AZ2"/>
-    <mergeCell ref="BA2:BF2"/>
-    <mergeCell ref="AV1:AZ1"/>
+    <mergeCell ref="AO49:AT50"/>
+    <mergeCell ref="AU49:BF50"/>
+    <mergeCell ref="AO51:AT52"/>
+    <mergeCell ref="AU51:BF52"/>
+    <mergeCell ref="AO43:AT44"/>
+    <mergeCell ref="AU43:BF44"/>
+    <mergeCell ref="AO45:AT46"/>
+    <mergeCell ref="AU45:BF46"/>
+    <mergeCell ref="AO47:AT48"/>
+    <mergeCell ref="AU47:BF48"/>
+    <mergeCell ref="AO39:AT40"/>
+    <mergeCell ref="AU29:BF30"/>
+    <mergeCell ref="AU39:BF40"/>
+    <mergeCell ref="AO41:AT42"/>
+    <mergeCell ref="AU41:BF42"/>
+    <mergeCell ref="AO33:AT34"/>
+    <mergeCell ref="AU33:BF34"/>
+    <mergeCell ref="AO31:AT32"/>
+    <mergeCell ref="AO35:AT36"/>
+    <mergeCell ref="AU35:BF36"/>
+    <mergeCell ref="AU31:BF32"/>
     <mergeCell ref="A3:AN3"/>
     <mergeCell ref="AU17:BF18"/>
     <mergeCell ref="AO25:AT26"/>
@@ -4312,27 +4439,32 @@
     <mergeCell ref="AU19:BF20"/>
     <mergeCell ref="AO9:AT10"/>
     <mergeCell ref="AO11:AT12"/>
-    <mergeCell ref="AO39:AT40"/>
-    <mergeCell ref="AU29:BF30"/>
-    <mergeCell ref="AU39:BF40"/>
-    <mergeCell ref="AO41:AT42"/>
-    <mergeCell ref="AU41:BF42"/>
-    <mergeCell ref="AO33:AT34"/>
-    <mergeCell ref="AU33:BF34"/>
-    <mergeCell ref="AO31:AT32"/>
-    <mergeCell ref="AO35:AT36"/>
-    <mergeCell ref="AU35:BF36"/>
-    <mergeCell ref="AU31:BF32"/>
-    <mergeCell ref="AO49:AT50"/>
-    <mergeCell ref="AU49:BF50"/>
-    <mergeCell ref="AO51:AT52"/>
-    <mergeCell ref="AU51:BF52"/>
-    <mergeCell ref="AO43:AT44"/>
-    <mergeCell ref="AU43:BF44"/>
-    <mergeCell ref="AO45:AT46"/>
-    <mergeCell ref="AU45:BF46"/>
-    <mergeCell ref="AO47:AT48"/>
-    <mergeCell ref="AU47:BF48"/>
+    <mergeCell ref="BA1:BF1"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="U2:AI2"/>
+    <mergeCell ref="AJ2:AN2"/>
+    <mergeCell ref="AO2:AU2"/>
+    <mergeCell ref="AV2:AZ2"/>
+    <mergeCell ref="BA2:BF2"/>
+    <mergeCell ref="AV1:AZ1"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="U1:AI1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AO1:AU1"/>
+    <mergeCell ref="AO27:AT28"/>
+    <mergeCell ref="AU27:BF28"/>
+    <mergeCell ref="AO37:AT38"/>
+    <mergeCell ref="AU37:BF38"/>
+    <mergeCell ref="AO5:AT6"/>
+    <mergeCell ref="AU5:BF6"/>
+    <mergeCell ref="AO13:AT14"/>
+    <mergeCell ref="AO15:AT16"/>
+    <mergeCell ref="AO17:AT18"/>
+    <mergeCell ref="AO19:AT20"/>
+    <mergeCell ref="AU23:BF24"/>
+    <mergeCell ref="AO23:AT24"/>
+    <mergeCell ref="AO29:AT30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/市場_2025改修/基本設計_2025/6_画面設計書(システム).xlsx
+++ b/市場_2025改修/基本設計_2025/6_画面設計書(システム).xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\si001\市場_2025改修\基本設計_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\works\Git\si001\市場_2025改修\基本設計_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59A5CA4-DF87-4C7B-BEA2-C095CD6D9590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A02A922-A413-46F8-96BF-05F541A88AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="888" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="888" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="170" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="システム" sheetId="168" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">システム!$A$1:$BF$52</definedName>
     <definedName name="範囲１" localSheetId="1">#REF!</definedName>
     <definedName name="範囲１" localSheetId="0">#REF!</definedName>
     <definedName name="範囲１">#REF!</definedName>
@@ -1399,6 +1400,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1414,45 +1424,36 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1462,10 +1463,79 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1473,75 +1543,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2148,12 +2149,12 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="22.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="22.5" customHeight="1"/>
   <cols>
-    <col min="1" max="12" width="8.75" style="7"/>
-    <col min="13" max="13" width="8.25" style="7" customWidth="1"/>
-    <col min="14" max="14" width="8.875" style="7" customWidth="1"/>
-    <col min="15" max="16384" width="8.75" style="7"/>
+    <col min="1" max="12" width="8.77734375" style="7"/>
+    <col min="13" max="13" width="8.21875" style="7" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="7" customWidth="1"/>
+    <col min="15" max="16384" width="8.77734375" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:16" ht="22.5" customHeight="1">
@@ -2177,50 +2178,50 @@
     </row>
     <row r="6" spans="3:16" ht="22.5" customHeight="1">
       <c r="C6" s="13"/>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
       <c r="N6" s="14"/>
     </row>
     <row r="7" spans="3:16" ht="51" customHeight="1">
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="38"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="41"/>
     </row>
     <row r="8" spans="3:16" ht="39" customHeight="1">
       <c r="C8" s="13"/>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
       <c r="N8" s="14"/>
     </row>
     <row r="9" spans="3:16" ht="22.5" customHeight="1" thickBot="1">
@@ -2243,10 +2244,10 @@
         <v>18</v>
       </c>
       <c r="G12" s="33"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="41"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="36"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
@@ -2269,42 +2270,42 @@
         <v>20</v>
       </c>
       <c r="G14" s="33"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="41"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="36"/>
     </row>
     <row r="15" spans="3:16" ht="22.5" customHeight="1">
       <c r="F15" s="32" t="s">
         <v>21</v>
       </c>
       <c r="G15" s="33"/>
-      <c r="H15" s="39" t="s">
+      <c r="H15" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="41"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="36"/>
     </row>
     <row r="16" spans="3:16" ht="22.5" customHeight="1">
       <c r="F16" s="32" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="33"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="41"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="36"/>
     </row>
     <row r="17" spans="6:16" ht="22.5" customHeight="1">
       <c r="F17" s="32" t="s">
         <v>23</v>
       </c>
       <c r="G17" s="33"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="41"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="36"/>
       <c r="N17" s="7" t="s">
         <v>37</v>
       </c>
@@ -2334,6 +2335,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="C7:N7"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:K12"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="F14:G14"/>
@@ -2342,12 +2349,6 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:K16"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="C7:N7"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2368,60 +2369,60 @@
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5" style="24" customWidth="1"/>
-    <col min="2" max="2" width="5.125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="24" customWidth="1"/>
-    <col min="4" max="14" width="7.125" style="24" customWidth="1"/>
-    <col min="15" max="18" width="10.625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="5.109375" style="24" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="24" customWidth="1"/>
+    <col min="4" max="14" width="7.109375" style="24" customWidth="1"/>
+    <col min="15" max="18" width="10.6640625" style="24" customWidth="1"/>
     <col min="19" max="16384" width="7" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="51" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
       <c r="P1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
       <c r="P2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" customHeight="1">
       <c r="A3" s="25"/>
@@ -2447,437 +2448,437 @@
       <c r="A4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49" t="s">
+      <c r="C4" s="43"/>
+      <c r="D4" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49" t="s">
+      <c r="E4" s="43"/>
+      <c r="F4" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49" t="s">
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="49"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" customHeight="1">
       <c r="A5" s="27">
         <v>1</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="47">
         <v>44621</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46" t="s">
+      <c r="C5" s="47"/>
+      <c r="D5" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46" t="s">
+      <c r="E5" s="48"/>
+      <c r="F5" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" customHeight="1">
       <c r="A6" s="28">
         <v>2</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6" s="49">
         <v>45870</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="44" t="s">
+      <c r="C6" s="49"/>
+      <c r="D6" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
     </row>
     <row r="7" spans="1:18" ht="27" customHeight="1">
       <c r="A7" s="28">
         <v>3</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
     </row>
     <row r="8" spans="1:18" ht="27" customHeight="1">
       <c r="A8" s="28">
         <v>4</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
     </row>
     <row r="9" spans="1:18" ht="27" customHeight="1">
       <c r="A9" s="28">
         <v>5</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
     </row>
     <row r="10" spans="1:18" ht="27" customHeight="1">
       <c r="A10" s="28">
         <v>6</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
     </row>
     <row r="11" spans="1:18" ht="27" customHeight="1">
       <c r="A11" s="28">
         <v>7</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="42"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
     </row>
     <row r="12" spans="1:18" ht="27" customHeight="1">
       <c r="A12" s="28">
         <v>8</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
     </row>
     <row r="13" spans="1:18" ht="27" customHeight="1">
       <c r="A13" s="28">
         <v>9</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
     </row>
     <row r="14" spans="1:18" ht="27" customHeight="1">
       <c r="A14" s="28">
         <v>10</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="44"/>
     </row>
     <row r="15" spans="1:18" ht="27" customHeight="1">
       <c r="A15" s="28">
         <v>11</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
     </row>
     <row r="16" spans="1:18" ht="27" customHeight="1">
       <c r="A16" s="28">
         <v>12</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
     </row>
     <row r="17" spans="1:18" ht="27" customHeight="1">
       <c r="A17" s="28">
         <v>13</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
     </row>
     <row r="18" spans="1:18" ht="27" customHeight="1">
       <c r="A18" s="28">
         <v>14</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="42"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
     </row>
     <row r="19" spans="1:18" ht="27" customHeight="1">
       <c r="A19" s="28">
         <v>15</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
     </row>
     <row r="20" spans="1:18" ht="27" customHeight="1">
       <c r="A20" s="28">
         <v>16</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="42"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
     </row>
     <row r="21" spans="1:18" ht="27" customHeight="1">
       <c r="A21" s="28">
         <v>17</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="42"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
     </row>
     <row r="22" spans="1:18" ht="27" customHeight="1">
       <c r="A22" s="28">
         <v>18</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="42"/>
-      <c r="R22" s="42"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
     </row>
     <row r="23" spans="1:18" ht="27" customHeight="1"/>
     <row r="24" spans="1:18" ht="27" customHeight="1"/>
@@ -2888,30 +2889,46 @@
     <row r="29" spans="1:18" ht="27" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="D1:O2"/>
-    <mergeCell ref="I4:R4"/>
-    <mergeCell ref="I8:R8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:R6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="I21:R21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:R22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I19:R19"/>
+    <mergeCell ref="I20:R20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I17:R17"/>
+    <mergeCell ref="I18:R18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I15:R15"/>
+    <mergeCell ref="I16:R16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I13:R13"/>
+    <mergeCell ref="I14:R14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
     <mergeCell ref="I11:R11"/>
     <mergeCell ref="I12:R12"/>
     <mergeCell ref="B9:C9"/>
@@ -2928,46 +2945,30 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I15:R15"/>
-    <mergeCell ref="I16:R16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I13:R13"/>
-    <mergeCell ref="I14:R14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I19:R19"/>
-    <mergeCell ref="I20:R20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I17:R17"/>
-    <mergeCell ref="I18:R18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I21:R21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:R22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I8:R8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:R6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="D1:O2"/>
+    <mergeCell ref="I4:R4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -2984,225 +2985,225 @@
   <dimension ref="A1:BF52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+      <selection sqref="A1:BF52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="10.8"/>
   <cols>
-    <col min="1" max="16384" width="2.5" style="1"/>
+    <col min="1" max="16384" width="2.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="30" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="55" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="56" t="str">
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="79" t="str">
         <f>表紙!C7</f>
         <v>施設使用料・償還金等料金計算及び納付書作成システム
 口座振替データ作成機能構築業務</v>
       </c>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="59" t="s">
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="80"/>
+      <c r="Z1" s="80"/>
+      <c r="AA1" s="80"/>
+      <c r="AB1" s="80"/>
+      <c r="AC1" s="80"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="80"/>
+      <c r="AF1" s="80"/>
+      <c r="AG1" s="80"/>
+      <c r="AH1" s="80"/>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="59"/>
-      <c r="AO1" s="60" t="s">
+      <c r="AK1" s="77"/>
+      <c r="AL1" s="77"/>
+      <c r="AM1" s="77"/>
+      <c r="AN1" s="77"/>
+      <c r="AO1" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="AP1" s="60"/>
-      <c r="AQ1" s="60"/>
-      <c r="AR1" s="60"/>
-      <c r="AS1" s="60"/>
-      <c r="AT1" s="60"/>
-      <c r="AU1" s="60"/>
-      <c r="AV1" s="59" t="s">
+      <c r="AP1" s="72"/>
+      <c r="AQ1" s="72"/>
+      <c r="AR1" s="72"/>
+      <c r="AS1" s="72"/>
+      <c r="AT1" s="72"/>
+      <c r="AU1" s="72"/>
+      <c r="AV1" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="AW1" s="59"/>
-      <c r="AX1" s="59"/>
-      <c r="AY1" s="59"/>
-      <c r="AZ1" s="59"/>
-      <c r="BA1" s="60" t="s">
+      <c r="AW1" s="77"/>
+      <c r="AX1" s="77"/>
+      <c r="AY1" s="77"/>
+      <c r="AZ1" s="77"/>
+      <c r="BA1" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="BB1" s="60"/>
-      <c r="BC1" s="60"/>
-      <c r="BD1" s="60"/>
-      <c r="BE1" s="60"/>
-      <c r="BF1" s="60"/>
+      <c r="BB1" s="72"/>
+      <c r="BC1" s="72"/>
+      <c r="BD1" s="72"/>
+      <c r="BE1" s="72"/>
+      <c r="BF1" s="72"/>
     </row>
     <row r="2" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="55" t="s">
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="61" t="s">
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="62"/>
-      <c r="AH2" s="62"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="59" t="s">
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="75"/>
+      <c r="AG2" s="75"/>
+      <c r="AH2" s="75"/>
+      <c r="AI2" s="76"/>
+      <c r="AJ2" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="59"/>
-      <c r="AL2" s="59"/>
-      <c r="AM2" s="59"/>
-      <c r="AN2" s="59"/>
-      <c r="AO2" s="64">
+      <c r="AK2" s="77"/>
+      <c r="AL2" s="77"/>
+      <c r="AM2" s="77"/>
+      <c r="AN2" s="77"/>
+      <c r="AO2" s="78">
         <v>44752</v>
       </c>
-      <c r="AP2" s="60"/>
-      <c r="AQ2" s="60"/>
-      <c r="AR2" s="60"/>
-      <c r="AS2" s="60"/>
-      <c r="AT2" s="60"/>
-      <c r="AU2" s="60"/>
-      <c r="AV2" s="59" t="s">
+      <c r="AP2" s="72"/>
+      <c r="AQ2" s="72"/>
+      <c r="AR2" s="72"/>
+      <c r="AS2" s="72"/>
+      <c r="AT2" s="72"/>
+      <c r="AU2" s="72"/>
+      <c r="AV2" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="AW2" s="59"/>
-      <c r="AX2" s="59"/>
-      <c r="AY2" s="59"/>
-      <c r="AZ2" s="59"/>
-      <c r="BA2" s="64">
+      <c r="AW2" s="77"/>
+      <c r="AX2" s="77"/>
+      <c r="AY2" s="77"/>
+      <c r="AZ2" s="77"/>
+      <c r="BA2" s="78">
         <v>45855</v>
       </c>
-      <c r="BB2" s="60"/>
-      <c r="BC2" s="60"/>
-      <c r="BD2" s="60"/>
-      <c r="BE2" s="60"/>
-      <c r="BF2" s="60"/>
+      <c r="BB2" s="72"/>
+      <c r="BC2" s="72"/>
+      <c r="BD2" s="72"/>
+      <c r="BE2" s="72"/>
+      <c r="BF2" s="72"/>
     </row>
     <row r="3" spans="1:58" ht="15" customHeight="1">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="66"/>
-      <c r="AK3" s="66"/>
-      <c r="AL3" s="66"/>
-      <c r="AM3" s="66"/>
-      <c r="AN3" s="67"/>
-      <c r="AO3" s="65" t="s">
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="64"/>
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="64"/>
+      <c r="AI3" s="64"/>
+      <c r="AJ3" s="64"/>
+      <c r="AK3" s="64"/>
+      <c r="AL3" s="64"/>
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="66"/>
-      <c r="AR3" s="66"/>
-      <c r="AS3" s="66"/>
-      <c r="AT3" s="66"/>
-      <c r="AU3" s="66"/>
-      <c r="AV3" s="66"/>
-      <c r="AW3" s="66"/>
-      <c r="AX3" s="66"/>
-      <c r="AY3" s="66"/>
-      <c r="AZ3" s="66"/>
-      <c r="BA3" s="66"/>
-      <c r="BB3" s="66"/>
-      <c r="BC3" s="66"/>
-      <c r="BD3" s="66"/>
-      <c r="BE3" s="66"/>
-      <c r="BF3" s="67"/>
+      <c r="AP3" s="64"/>
+      <c r="AQ3" s="64"/>
+      <c r="AR3" s="64"/>
+      <c r="AS3" s="64"/>
+      <c r="AT3" s="64"/>
+      <c r="AU3" s="64"/>
+      <c r="AV3" s="64"/>
+      <c r="AW3" s="64"/>
+      <c r="AX3" s="64"/>
+      <c r="AY3" s="64"/>
+      <c r="AZ3" s="64"/>
+      <c r="BA3" s="64"/>
+      <c r="BB3" s="64"/>
+      <c r="BC3" s="64"/>
+      <c r="BD3" s="64"/>
+      <c r="BE3" s="64"/>
+      <c r="BF3" s="65"/>
     </row>
     <row r="4" spans="1:58">
       <c r="A4" s="2"/>
@@ -3216,11 +3217,11 @@
       <c r="AO5" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="AP5" s="42"/>
-      <c r="AQ5" s="42"/>
-      <c r="AR5" s="42"/>
-      <c r="AS5" s="42"/>
-      <c r="AT5" s="42"/>
+      <c r="AP5" s="44"/>
+      <c r="AQ5" s="44"/>
+      <c r="AR5" s="44"/>
+      <c r="AS5" s="44"/>
+      <c r="AT5" s="44"/>
       <c r="AU5" s="53" t="s">
         <v>60</v>
       </c>
@@ -3240,11 +3241,11 @@
       <c r="A6" s="2"/>
       <c r="AN6" s="3"/>
       <c r="AO6" s="52"/>
-      <c r="AP6" s="42"/>
-      <c r="AQ6" s="42"/>
-      <c r="AR6" s="42"/>
-      <c r="AS6" s="42"/>
-      <c r="AT6" s="42"/>
+      <c r="AP6" s="44"/>
+      <c r="AQ6" s="44"/>
+      <c r="AR6" s="44"/>
+      <c r="AS6" s="44"/>
+      <c r="AT6" s="44"/>
       <c r="AU6" s="53"/>
       <c r="AV6" s="53"/>
       <c r="AW6" s="53"/>
@@ -3261,14 +3262,14 @@
     <row r="7" spans="1:58">
       <c r="A7" s="2"/>
       <c r="AN7" s="3"/>
-      <c r="AO7" s="68" t="s">
+      <c r="AO7" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="AP7" s="69"/>
-      <c r="AQ7" s="69"/>
-      <c r="AR7" s="69"/>
-      <c r="AS7" s="69"/>
-      <c r="AT7" s="70"/>
+      <c r="AP7" s="67"/>
+      <c r="AQ7" s="67"/>
+      <c r="AR7" s="67"/>
+      <c r="AS7" s="67"/>
+      <c r="AT7" s="68"/>
       <c r="AU7" s="53" t="s">
         <v>42</v>
       </c>
@@ -3287,12 +3288,12 @@
     <row r="8" spans="1:58">
       <c r="A8" s="2"/>
       <c r="AN8" s="3"/>
-      <c r="AO8" s="71"/>
-      <c r="AP8" s="72"/>
-      <c r="AQ8" s="72"/>
-      <c r="AR8" s="72"/>
-      <c r="AS8" s="72"/>
-      <c r="AT8" s="73"/>
+      <c r="AO8" s="69"/>
+      <c r="AP8" s="70"/>
+      <c r="AQ8" s="70"/>
+      <c r="AR8" s="70"/>
+      <c r="AS8" s="70"/>
+      <c r="AT8" s="71"/>
       <c r="AU8" s="53"/>
       <c r="AV8" s="53"/>
       <c r="AW8" s="53"/>
@@ -3312,11 +3313,11 @@
       <c r="AO9" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="AP9" s="42"/>
-      <c r="AQ9" s="42"/>
-      <c r="AR9" s="42"/>
-      <c r="AS9" s="42"/>
-      <c r="AT9" s="42"/>
+      <c r="AP9" s="44"/>
+      <c r="AQ9" s="44"/>
+      <c r="AR9" s="44"/>
+      <c r="AS9" s="44"/>
+      <c r="AT9" s="44"/>
       <c r="AU9" s="53" t="s">
         <v>33</v>
       </c>
@@ -3336,11 +3337,11 @@
       <c r="A10" s="2"/>
       <c r="AN10" s="3"/>
       <c r="AO10" s="52"/>
-      <c r="AP10" s="42"/>
-      <c r="AQ10" s="42"/>
-      <c r="AR10" s="42"/>
-      <c r="AS10" s="42"/>
-      <c r="AT10" s="42"/>
+      <c r="AP10" s="44"/>
+      <c r="AQ10" s="44"/>
+      <c r="AR10" s="44"/>
+      <c r="AS10" s="44"/>
+      <c r="AT10" s="44"/>
       <c r="AU10" s="53"/>
       <c r="AV10" s="53"/>
       <c r="AW10" s="53"/>
@@ -3360,11 +3361,11 @@
       <c r="AO11" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="AP11" s="42"/>
-      <c r="AQ11" s="42"/>
-      <c r="AR11" s="42"/>
-      <c r="AS11" s="42"/>
-      <c r="AT11" s="42"/>
+      <c r="AP11" s="44"/>
+      <c r="AQ11" s="44"/>
+      <c r="AR11" s="44"/>
+      <c r="AS11" s="44"/>
+      <c r="AT11" s="44"/>
       <c r="AU11" s="53" t="s">
         <v>34</v>
       </c>
@@ -3384,11 +3385,11 @@
       <c r="A12" s="2"/>
       <c r="AN12" s="3"/>
       <c r="AO12" s="52"/>
-      <c r="AP12" s="42"/>
-      <c r="AQ12" s="42"/>
-      <c r="AR12" s="42"/>
-      <c r="AS12" s="42"/>
-      <c r="AT12" s="42"/>
+      <c r="AP12" s="44"/>
+      <c r="AQ12" s="44"/>
+      <c r="AR12" s="44"/>
+      <c r="AS12" s="44"/>
+      <c r="AT12" s="44"/>
       <c r="AU12" s="53"/>
       <c r="AV12" s="53"/>
       <c r="AW12" s="53"/>
@@ -3408,11 +3409,11 @@
       <c r="AO13" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="AP13" s="42"/>
-      <c r="AQ13" s="42"/>
-      <c r="AR13" s="42"/>
-      <c r="AS13" s="42"/>
-      <c r="AT13" s="42"/>
+      <c r="AP13" s="44"/>
+      <c r="AQ13" s="44"/>
+      <c r="AR13" s="44"/>
+      <c r="AS13" s="44"/>
+      <c r="AT13" s="44"/>
       <c r="AU13" s="53" t="s">
         <v>35</v>
       </c>
@@ -3432,11 +3433,11 @@
       <c r="A14" s="2"/>
       <c r="AN14" s="3"/>
       <c r="AO14" s="52"/>
-      <c r="AP14" s="42"/>
-      <c r="AQ14" s="42"/>
-      <c r="AR14" s="42"/>
-      <c r="AS14" s="42"/>
-      <c r="AT14" s="42"/>
+      <c r="AP14" s="44"/>
+      <c r="AQ14" s="44"/>
+      <c r="AR14" s="44"/>
+      <c r="AS14" s="44"/>
+      <c r="AT14" s="44"/>
       <c r="AU14" s="53"/>
       <c r="AV14" s="53"/>
       <c r="AW14" s="53"/>
@@ -3456,11 +3457,11 @@
       <c r="AO15" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="AP15" s="42"/>
-      <c r="AQ15" s="42"/>
-      <c r="AR15" s="42"/>
-      <c r="AS15" s="42"/>
-      <c r="AT15" s="42"/>
+      <c r="AP15" s="44"/>
+      <c r="AQ15" s="44"/>
+      <c r="AR15" s="44"/>
+      <c r="AS15" s="44"/>
+      <c r="AT15" s="44"/>
       <c r="AU15" s="53" t="s">
         <v>75</v>
       </c>
@@ -3480,11 +3481,11 @@
       <c r="A16" s="2"/>
       <c r="AN16" s="3"/>
       <c r="AO16" s="52"/>
-      <c r="AP16" s="42"/>
-      <c r="AQ16" s="42"/>
-      <c r="AR16" s="42"/>
-      <c r="AS16" s="42"/>
-      <c r="AT16" s="42"/>
+      <c r="AP16" s="44"/>
+      <c r="AQ16" s="44"/>
+      <c r="AR16" s="44"/>
+      <c r="AS16" s="44"/>
+      <c r="AT16" s="44"/>
       <c r="AU16" s="53"/>
       <c r="AV16" s="53"/>
       <c r="AW16" s="53"/>
@@ -3504,11 +3505,11 @@
       <c r="AO17" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="AP17" s="42"/>
-      <c r="AQ17" s="42"/>
-      <c r="AR17" s="42"/>
-      <c r="AS17" s="42"/>
-      <c r="AT17" s="42"/>
+      <c r="AP17" s="44"/>
+      <c r="AQ17" s="44"/>
+      <c r="AR17" s="44"/>
+      <c r="AS17" s="44"/>
+      <c r="AT17" s="44"/>
       <c r="AU17" s="53" t="s">
         <v>36</v>
       </c>
@@ -3528,11 +3529,11 @@
       <c r="A18" s="2"/>
       <c r="AN18" s="3"/>
       <c r="AO18" s="52"/>
-      <c r="AP18" s="42"/>
-      <c r="AQ18" s="42"/>
-      <c r="AR18" s="42"/>
-      <c r="AS18" s="42"/>
-      <c r="AT18" s="42"/>
+      <c r="AP18" s="44"/>
+      <c r="AQ18" s="44"/>
+      <c r="AR18" s="44"/>
+      <c r="AS18" s="44"/>
+      <c r="AT18" s="44"/>
       <c r="AU18" s="53"/>
       <c r="AV18" s="53"/>
       <c r="AW18" s="53"/>
@@ -3552,11 +3553,11 @@
       <c r="AO19" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="AP19" s="42"/>
-      <c r="AQ19" s="42"/>
-      <c r="AR19" s="42"/>
-      <c r="AS19" s="42"/>
-      <c r="AT19" s="42"/>
+      <c r="AP19" s="44"/>
+      <c r="AQ19" s="44"/>
+      <c r="AR19" s="44"/>
+      <c r="AS19" s="44"/>
+      <c r="AT19" s="44"/>
       <c r="AU19" s="53" t="s">
         <v>73</v>
       </c>
@@ -3576,11 +3577,11 @@
       <c r="A20" s="2"/>
       <c r="AN20" s="3"/>
       <c r="AO20" s="52"/>
-      <c r="AP20" s="42"/>
-      <c r="AQ20" s="42"/>
-      <c r="AR20" s="42"/>
-      <c r="AS20" s="42"/>
-      <c r="AT20" s="42"/>
+      <c r="AP20" s="44"/>
+      <c r="AQ20" s="44"/>
+      <c r="AR20" s="44"/>
+      <c r="AS20" s="44"/>
+      <c r="AT20" s="44"/>
       <c r="AU20" s="53"/>
       <c r="AV20" s="53"/>
       <c r="AW20" s="53"/>
@@ -3600,11 +3601,11 @@
       <c r="AO21" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="AP21" s="42"/>
-      <c r="AQ21" s="42"/>
-      <c r="AR21" s="42"/>
-      <c r="AS21" s="42"/>
-      <c r="AT21" s="42"/>
+      <c r="AP21" s="44"/>
+      <c r="AQ21" s="44"/>
+      <c r="AR21" s="44"/>
+      <c r="AS21" s="44"/>
+      <c r="AT21" s="44"/>
       <c r="AU21" s="53" t="s">
         <v>72</v>
       </c>
@@ -3624,11 +3625,11 @@
       <c r="A22" s="2"/>
       <c r="AN22" s="3"/>
       <c r="AO22" s="52"/>
-      <c r="AP22" s="42"/>
-      <c r="AQ22" s="42"/>
-      <c r="AR22" s="42"/>
-      <c r="AS22" s="42"/>
-      <c r="AT22" s="42"/>
+      <c r="AP22" s="44"/>
+      <c r="AQ22" s="44"/>
+      <c r="AR22" s="44"/>
+      <c r="AS22" s="44"/>
+      <c r="AT22" s="44"/>
       <c r="AU22" s="53"/>
       <c r="AV22" s="53"/>
       <c r="AW22" s="53"/>
@@ -3648,11 +3649,11 @@
       <c r="AO23" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="AP23" s="42"/>
-      <c r="AQ23" s="42"/>
-      <c r="AR23" s="42"/>
-      <c r="AS23" s="42"/>
-      <c r="AT23" s="42"/>
+      <c r="AP23" s="44"/>
+      <c r="AQ23" s="44"/>
+      <c r="AR23" s="44"/>
+      <c r="AS23" s="44"/>
+      <c r="AT23" s="44"/>
       <c r="AU23" s="53" t="s">
         <v>70</v>
       </c>
@@ -3672,11 +3673,11 @@
       <c r="A24" s="2"/>
       <c r="AN24" s="3"/>
       <c r="AO24" s="52"/>
-      <c r="AP24" s="42"/>
-      <c r="AQ24" s="42"/>
-      <c r="AR24" s="42"/>
-      <c r="AS24" s="42"/>
-      <c r="AT24" s="42"/>
+      <c r="AP24" s="44"/>
+      <c r="AQ24" s="44"/>
+      <c r="AR24" s="44"/>
+      <c r="AS24" s="44"/>
+      <c r="AT24" s="44"/>
       <c r="AU24" s="53"/>
       <c r="AV24" s="53"/>
       <c r="AW24" s="53"/>
@@ -3693,14 +3694,14 @@
     <row r="25" spans="1:58" ht="11.25" customHeight="1">
       <c r="A25" s="2"/>
       <c r="AN25" s="3"/>
-      <c r="AO25" s="68" t="s">
+      <c r="AO25" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="AP25" s="69"/>
-      <c r="AQ25" s="69"/>
-      <c r="AR25" s="69"/>
-      <c r="AS25" s="69"/>
-      <c r="AT25" s="70"/>
+      <c r="AP25" s="67"/>
+      <c r="AQ25" s="67"/>
+      <c r="AR25" s="67"/>
+      <c r="AS25" s="67"/>
+      <c r="AT25" s="68"/>
       <c r="AU25" s="53" t="s">
         <v>45</v>
       </c>
@@ -3719,12 +3720,12 @@
     <row r="26" spans="1:58">
       <c r="A26" s="2"/>
       <c r="AN26" s="3"/>
-      <c r="AO26" s="71"/>
-      <c r="AP26" s="72"/>
-      <c r="AQ26" s="72"/>
-      <c r="AR26" s="72"/>
-      <c r="AS26" s="72"/>
-      <c r="AT26" s="73"/>
+      <c r="AO26" s="69"/>
+      <c r="AP26" s="70"/>
+      <c r="AQ26" s="70"/>
+      <c r="AR26" s="70"/>
+      <c r="AS26" s="70"/>
+      <c r="AT26" s="71"/>
       <c r="AU26" s="53"/>
       <c r="AV26" s="53"/>
       <c r="AW26" s="53"/>
@@ -3744,11 +3745,11 @@
       <c r="AO27" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="AP27" s="42"/>
-      <c r="AQ27" s="42"/>
-      <c r="AR27" s="42"/>
-      <c r="AS27" s="42"/>
-      <c r="AT27" s="42"/>
+      <c r="AP27" s="44"/>
+      <c r="AQ27" s="44"/>
+      <c r="AR27" s="44"/>
+      <c r="AS27" s="44"/>
+      <c r="AT27" s="44"/>
       <c r="AU27" s="53" t="s">
         <v>44</v>
       </c>
@@ -3768,11 +3769,11 @@
       <c r="A28" s="2"/>
       <c r="AN28" s="3"/>
       <c r="AO28" s="52"/>
-      <c r="AP28" s="42"/>
-      <c r="AQ28" s="42"/>
-      <c r="AR28" s="42"/>
-      <c r="AS28" s="42"/>
-      <c r="AT28" s="42"/>
+      <c r="AP28" s="44"/>
+      <c r="AQ28" s="44"/>
+      <c r="AR28" s="44"/>
+      <c r="AS28" s="44"/>
+      <c r="AT28" s="44"/>
       <c r="AU28" s="53"/>
       <c r="AV28" s="53"/>
       <c r="AW28" s="53"/>
@@ -3792,11 +3793,11 @@
       <c r="AO29" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="AP29" s="42"/>
-      <c r="AQ29" s="42"/>
-      <c r="AR29" s="42"/>
-      <c r="AS29" s="42"/>
-      <c r="AT29" s="42"/>
+      <c r="AP29" s="44"/>
+      <c r="AQ29" s="44"/>
+      <c r="AR29" s="44"/>
+      <c r="AS29" s="44"/>
+      <c r="AT29" s="44"/>
       <c r="AU29" s="53" t="s">
         <v>66</v>
       </c>
@@ -3816,11 +3817,11 @@
       <c r="A30" s="2"/>
       <c r="AN30" s="3"/>
       <c r="AO30" s="52"/>
-      <c r="AP30" s="42"/>
-      <c r="AQ30" s="42"/>
-      <c r="AR30" s="42"/>
-      <c r="AS30" s="42"/>
-      <c r="AT30" s="42"/>
+      <c r="AP30" s="44"/>
+      <c r="AQ30" s="44"/>
+      <c r="AR30" s="44"/>
+      <c r="AS30" s="44"/>
+      <c r="AT30" s="44"/>
       <c r="AU30" s="53"/>
       <c r="AV30" s="53"/>
       <c r="AW30" s="53"/>
@@ -3840,11 +3841,11 @@
       <c r="AO31" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="AP31" s="42"/>
-      <c r="AQ31" s="42"/>
-      <c r="AR31" s="42"/>
-      <c r="AS31" s="42"/>
-      <c r="AT31" s="42"/>
+      <c r="AP31" s="44"/>
+      <c r="AQ31" s="44"/>
+      <c r="AR31" s="44"/>
+      <c r="AS31" s="44"/>
+      <c r="AT31" s="44"/>
       <c r="AU31" s="53" t="s">
         <v>67</v>
       </c>
@@ -3864,11 +3865,11 @@
       <c r="A32" s="2"/>
       <c r="AN32" s="3"/>
       <c r="AO32" s="52"/>
-      <c r="AP32" s="42"/>
-      <c r="AQ32" s="42"/>
-      <c r="AR32" s="42"/>
-      <c r="AS32" s="42"/>
-      <c r="AT32" s="42"/>
+      <c r="AP32" s="44"/>
+      <c r="AQ32" s="44"/>
+      <c r="AR32" s="44"/>
+      <c r="AS32" s="44"/>
+      <c r="AT32" s="44"/>
       <c r="AU32" s="53"/>
       <c r="AV32" s="53"/>
       <c r="AW32" s="53"/>
@@ -3888,11 +3889,11 @@
       <c r="AO33" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="AP33" s="42"/>
-      <c r="AQ33" s="42"/>
-      <c r="AR33" s="42"/>
-      <c r="AS33" s="42"/>
-      <c r="AT33" s="42"/>
+      <c r="AP33" s="44"/>
+      <c r="AQ33" s="44"/>
+      <c r="AR33" s="44"/>
+      <c r="AS33" s="44"/>
+      <c r="AT33" s="44"/>
       <c r="AU33" s="53" t="s">
         <v>43</v>
       </c>
@@ -3912,11 +3913,11 @@
       <c r="A34" s="2"/>
       <c r="AN34" s="3"/>
       <c r="AO34" s="52"/>
-      <c r="AP34" s="42"/>
-      <c r="AQ34" s="42"/>
-      <c r="AR34" s="42"/>
-      <c r="AS34" s="42"/>
-      <c r="AT34" s="42"/>
+      <c r="AP34" s="44"/>
+      <c r="AQ34" s="44"/>
+      <c r="AR34" s="44"/>
+      <c r="AS34" s="44"/>
+      <c r="AT34" s="44"/>
       <c r="AU34" s="53"/>
       <c r="AV34" s="53"/>
       <c r="AW34" s="53"/>
@@ -3936,11 +3937,11 @@
       <c r="AO35" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="AP35" s="42"/>
-      <c r="AQ35" s="42"/>
-      <c r="AR35" s="42"/>
-      <c r="AS35" s="42"/>
-      <c r="AT35" s="42"/>
+      <c r="AP35" s="44"/>
+      <c r="AQ35" s="44"/>
+      <c r="AR35" s="44"/>
+      <c r="AS35" s="44"/>
+      <c r="AT35" s="44"/>
       <c r="AU35" s="53" t="s">
         <v>43</v>
       </c>
@@ -3960,11 +3961,11 @@
       <c r="A36" s="2"/>
       <c r="AN36" s="3"/>
       <c r="AO36" s="52"/>
-      <c r="AP36" s="42"/>
-      <c r="AQ36" s="42"/>
-      <c r="AR36" s="42"/>
-      <c r="AS36" s="42"/>
-      <c r="AT36" s="42"/>
+      <c r="AP36" s="44"/>
+      <c r="AQ36" s="44"/>
+      <c r="AR36" s="44"/>
+      <c r="AS36" s="44"/>
+      <c r="AT36" s="44"/>
       <c r="AU36" s="53"/>
       <c r="AV36" s="53"/>
       <c r="AW36" s="53"/>
@@ -3984,11 +3985,11 @@
       <c r="AO37" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="AP37" s="42"/>
-      <c r="AQ37" s="42"/>
-      <c r="AR37" s="42"/>
-      <c r="AS37" s="42"/>
-      <c r="AT37" s="42"/>
+      <c r="AP37" s="44"/>
+      <c r="AQ37" s="44"/>
+      <c r="AR37" s="44"/>
+      <c r="AS37" s="44"/>
+      <c r="AT37" s="44"/>
       <c r="AU37" s="53" t="s">
         <v>43</v>
       </c>
@@ -4008,11 +4009,11 @@
       <c r="A38" s="2"/>
       <c r="AN38" s="3"/>
       <c r="AO38" s="52"/>
-      <c r="AP38" s="42"/>
-      <c r="AQ38" s="42"/>
-      <c r="AR38" s="42"/>
-      <c r="AS38" s="42"/>
-      <c r="AT38" s="42"/>
+      <c r="AP38" s="44"/>
+      <c r="AQ38" s="44"/>
+      <c r="AR38" s="44"/>
+      <c r="AS38" s="44"/>
+      <c r="AT38" s="44"/>
       <c r="AU38" s="53"/>
       <c r="AV38" s="53"/>
       <c r="AW38" s="53"/>
@@ -4032,11 +4033,11 @@
       <c r="AO39" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="AP39" s="42"/>
-      <c r="AQ39" s="42"/>
-      <c r="AR39" s="42"/>
-      <c r="AS39" s="42"/>
-      <c r="AT39" s="42"/>
+      <c r="AP39" s="44"/>
+      <c r="AQ39" s="44"/>
+      <c r="AR39" s="44"/>
+      <c r="AS39" s="44"/>
+      <c r="AT39" s="44"/>
       <c r="AU39" s="53" t="s">
         <v>43</v>
       </c>
@@ -4056,11 +4057,11 @@
       <c r="A40" s="2"/>
       <c r="AN40" s="3"/>
       <c r="AO40" s="52"/>
-      <c r="AP40" s="42"/>
-      <c r="AQ40" s="42"/>
-      <c r="AR40" s="42"/>
-      <c r="AS40" s="42"/>
-      <c r="AT40" s="42"/>
+      <c r="AP40" s="44"/>
+      <c r="AQ40" s="44"/>
+      <c r="AR40" s="44"/>
+      <c r="AS40" s="44"/>
+      <c r="AT40" s="44"/>
       <c r="AU40" s="53"/>
       <c r="AV40" s="53"/>
       <c r="AW40" s="53"/>
@@ -4077,7 +4078,7 @@
     <row r="41" spans="1:58" ht="11.25" customHeight="1">
       <c r="A41" s="2"/>
       <c r="AN41" s="3"/>
-      <c r="AO41" s="74" t="s">
+      <c r="AO41" s="62" t="s">
         <v>61</v>
       </c>
       <c r="AP41" s="53"/>
@@ -4103,7 +4104,7 @@
     <row r="42" spans="1:58">
       <c r="A42" s="2"/>
       <c r="AN42" s="3"/>
-      <c r="AO42" s="74"/>
+      <c r="AO42" s="62"/>
       <c r="AP42" s="53"/>
       <c r="AQ42" s="53"/>
       <c r="AR42" s="53"/>
@@ -4128,11 +4129,11 @@
       <c r="AO43" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="AP43" s="42"/>
-      <c r="AQ43" s="42"/>
-      <c r="AR43" s="42"/>
-      <c r="AS43" s="42"/>
-      <c r="AT43" s="42"/>
+      <c r="AP43" s="44"/>
+      <c r="AQ43" s="44"/>
+      <c r="AR43" s="44"/>
+      <c r="AS43" s="44"/>
+      <c r="AT43" s="44"/>
       <c r="AU43" s="53" t="s">
         <v>51</v>
       </c>
@@ -4152,11 +4153,11 @@
       <c r="A44" s="2"/>
       <c r="AN44" s="3"/>
       <c r="AO44" s="52"/>
-      <c r="AP44" s="42"/>
-      <c r="AQ44" s="42"/>
-      <c r="AR44" s="42"/>
-      <c r="AS44" s="42"/>
-      <c r="AT44" s="42"/>
+      <c r="AP44" s="44"/>
+      <c r="AQ44" s="44"/>
+      <c r="AR44" s="44"/>
+      <c r="AS44" s="44"/>
+      <c r="AT44" s="44"/>
       <c r="AU44" s="53"/>
       <c r="AV44" s="53"/>
       <c r="AW44" s="53"/>
@@ -4176,11 +4177,11 @@
       <c r="AO45" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="AP45" s="42"/>
-      <c r="AQ45" s="42"/>
-      <c r="AR45" s="42"/>
-      <c r="AS45" s="42"/>
-      <c r="AT45" s="42"/>
+      <c r="AP45" s="44"/>
+      <c r="AQ45" s="44"/>
+      <c r="AR45" s="44"/>
+      <c r="AS45" s="44"/>
+      <c r="AT45" s="44"/>
       <c r="AU45" s="53" t="s">
         <v>62</v>
       </c>
@@ -4200,11 +4201,11 @@
       <c r="A46" s="2"/>
       <c r="AN46" s="3"/>
       <c r="AO46" s="52"/>
-      <c r="AP46" s="42"/>
-      <c r="AQ46" s="42"/>
-      <c r="AR46" s="42"/>
-      <c r="AS46" s="42"/>
-      <c r="AT46" s="42"/>
+      <c r="AP46" s="44"/>
+      <c r="AQ46" s="44"/>
+      <c r="AR46" s="44"/>
+      <c r="AS46" s="44"/>
+      <c r="AT46" s="44"/>
       <c r="AU46" s="53"/>
       <c r="AV46" s="53"/>
       <c r="AW46" s="53"/>
@@ -4224,11 +4225,11 @@
       <c r="AO47" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="AP47" s="42"/>
-      <c r="AQ47" s="42"/>
-      <c r="AR47" s="42"/>
-      <c r="AS47" s="42"/>
-      <c r="AT47" s="42"/>
+      <c r="AP47" s="44"/>
+      <c r="AQ47" s="44"/>
+      <c r="AR47" s="44"/>
+      <c r="AS47" s="44"/>
+      <c r="AT47" s="44"/>
       <c r="AU47" s="53" t="s">
         <v>63</v>
       </c>
@@ -4248,11 +4249,11 @@
       <c r="A48" s="2"/>
       <c r="AN48" s="3"/>
       <c r="AO48" s="52"/>
-      <c r="AP48" s="42"/>
-      <c r="AQ48" s="42"/>
-      <c r="AR48" s="42"/>
-      <c r="AS48" s="42"/>
-      <c r="AT48" s="42"/>
+      <c r="AP48" s="44"/>
+      <c r="AQ48" s="44"/>
+      <c r="AR48" s="44"/>
+      <c r="AS48" s="44"/>
+      <c r="AT48" s="44"/>
       <c r="AU48" s="53"/>
       <c r="AV48" s="53"/>
       <c r="AW48" s="53"/>
@@ -4272,11 +4273,11 @@
       <c r="AO49" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="AP49" s="42"/>
-      <c r="AQ49" s="42"/>
-      <c r="AR49" s="42"/>
-      <c r="AS49" s="42"/>
-      <c r="AT49" s="42"/>
+      <c r="AP49" s="44"/>
+      <c r="AQ49" s="44"/>
+      <c r="AR49" s="44"/>
+      <c r="AS49" s="44"/>
+      <c r="AT49" s="44"/>
       <c r="AU49" s="53" t="s">
         <v>57</v>
       </c>
@@ -4296,11 +4297,11 @@
       <c r="A50" s="2"/>
       <c r="AN50" s="3"/>
       <c r="AO50" s="52"/>
-      <c r="AP50" s="42"/>
-      <c r="AQ50" s="42"/>
-      <c r="AR50" s="42"/>
-      <c r="AS50" s="42"/>
-      <c r="AT50" s="42"/>
+      <c r="AP50" s="44"/>
+      <c r="AQ50" s="44"/>
+      <c r="AR50" s="44"/>
+      <c r="AS50" s="44"/>
+      <c r="AT50" s="44"/>
       <c r="AU50" s="53"/>
       <c r="AV50" s="53"/>
       <c r="AW50" s="53"/>
@@ -4317,28 +4318,28 @@
     <row r="51" spans="1:58">
       <c r="A51" s="2"/>
       <c r="AN51" s="3"/>
-      <c r="AO51" s="75" t="s">
+      <c r="AO51" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="AP51" s="47"/>
-      <c r="AQ51" s="47"/>
-      <c r="AR51" s="47"/>
-      <c r="AS51" s="47"/>
-      <c r="AT51" s="47"/>
-      <c r="AU51" s="78" t="s">
+      <c r="AP51" s="51"/>
+      <c r="AQ51" s="51"/>
+      <c r="AR51" s="51"/>
+      <c r="AS51" s="51"/>
+      <c r="AT51" s="51"/>
+      <c r="AU51" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="AV51" s="78"/>
-      <c r="AW51" s="78"/>
-      <c r="AX51" s="78"/>
-      <c r="AY51" s="78"/>
-      <c r="AZ51" s="78"/>
-      <c r="BA51" s="78"/>
-      <c r="BB51" s="78"/>
-      <c r="BC51" s="78"/>
-      <c r="BD51" s="78"/>
-      <c r="BE51" s="78"/>
-      <c r="BF51" s="79"/>
+      <c r="AV51" s="58"/>
+      <c r="AW51" s="58"/>
+      <c r="AX51" s="58"/>
+      <c r="AY51" s="58"/>
+      <c r="AZ51" s="58"/>
+      <c r="BA51" s="58"/>
+      <c r="BB51" s="58"/>
+      <c r="BC51" s="58"/>
+      <c r="BD51" s="58"/>
+      <c r="BE51" s="58"/>
+      <c r="BF51" s="59"/>
     </row>
     <row r="52" spans="1:58">
       <c r="A52" s="4"/>
@@ -4381,48 +4382,53 @@
       <c r="AL52" s="5"/>
       <c r="AM52" s="5"/>
       <c r="AN52" s="6"/>
-      <c r="AO52" s="76"/>
-      <c r="AP52" s="77"/>
-      <c r="AQ52" s="77"/>
-      <c r="AR52" s="77"/>
-      <c r="AS52" s="77"/>
-      <c r="AT52" s="77"/>
-      <c r="AU52" s="80"/>
-      <c r="AV52" s="80"/>
-      <c r="AW52" s="80"/>
-      <c r="AX52" s="80"/>
-      <c r="AY52" s="80"/>
-      <c r="AZ52" s="80"/>
-      <c r="BA52" s="80"/>
-      <c r="BB52" s="80"/>
-      <c r="BC52" s="80"/>
-      <c r="BD52" s="80"/>
-      <c r="BE52" s="80"/>
-      <c r="BF52" s="81"/>
+      <c r="AO52" s="56"/>
+      <c r="AP52" s="57"/>
+      <c r="AQ52" s="57"/>
+      <c r="AR52" s="57"/>
+      <c r="AS52" s="57"/>
+      <c r="AT52" s="57"/>
+      <c r="AU52" s="60"/>
+      <c r="AV52" s="60"/>
+      <c r="AW52" s="60"/>
+      <c r="AX52" s="60"/>
+      <c r="AY52" s="60"/>
+      <c r="AZ52" s="60"/>
+      <c r="BA52" s="60"/>
+      <c r="BB52" s="60"/>
+      <c r="BC52" s="60"/>
+      <c r="BD52" s="60"/>
+      <c r="BE52" s="60"/>
+      <c r="BF52" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="AO49:AT50"/>
-    <mergeCell ref="AU49:BF50"/>
-    <mergeCell ref="AO51:AT52"/>
-    <mergeCell ref="AU51:BF52"/>
-    <mergeCell ref="AO43:AT44"/>
-    <mergeCell ref="AU43:BF44"/>
-    <mergeCell ref="AO45:AT46"/>
-    <mergeCell ref="AU45:BF46"/>
-    <mergeCell ref="AO47:AT48"/>
-    <mergeCell ref="AU47:BF48"/>
-    <mergeCell ref="AO39:AT40"/>
-    <mergeCell ref="AU29:BF30"/>
-    <mergeCell ref="AU39:BF40"/>
-    <mergeCell ref="AO41:AT42"/>
-    <mergeCell ref="AU41:BF42"/>
-    <mergeCell ref="AO33:AT34"/>
-    <mergeCell ref="AU33:BF34"/>
-    <mergeCell ref="AO31:AT32"/>
-    <mergeCell ref="AO35:AT36"/>
-    <mergeCell ref="AU35:BF36"/>
-    <mergeCell ref="AU31:BF32"/>
+    <mergeCell ref="AO27:AT28"/>
+    <mergeCell ref="AU27:BF28"/>
+    <mergeCell ref="AO37:AT38"/>
+    <mergeCell ref="AU37:BF38"/>
+    <mergeCell ref="AO5:AT6"/>
+    <mergeCell ref="AU5:BF6"/>
+    <mergeCell ref="AO13:AT14"/>
+    <mergeCell ref="AO15:AT16"/>
+    <mergeCell ref="AO17:AT18"/>
+    <mergeCell ref="AO19:AT20"/>
+    <mergeCell ref="AU23:BF24"/>
+    <mergeCell ref="AO23:AT24"/>
+    <mergeCell ref="AO29:AT30"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="U1:AI1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AO1:AU1"/>
+    <mergeCell ref="BA1:BF1"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="U2:AI2"/>
+    <mergeCell ref="AJ2:AN2"/>
+    <mergeCell ref="AO2:AU2"/>
+    <mergeCell ref="AV2:AZ2"/>
+    <mergeCell ref="BA2:BF2"/>
+    <mergeCell ref="AV1:AZ1"/>
     <mergeCell ref="A3:AN3"/>
     <mergeCell ref="AU17:BF18"/>
     <mergeCell ref="AO25:AT26"/>
@@ -4439,36 +4445,31 @@
     <mergeCell ref="AU19:BF20"/>
     <mergeCell ref="AO9:AT10"/>
     <mergeCell ref="AO11:AT12"/>
-    <mergeCell ref="BA1:BF1"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="U2:AI2"/>
-    <mergeCell ref="AJ2:AN2"/>
-    <mergeCell ref="AO2:AU2"/>
-    <mergeCell ref="AV2:AZ2"/>
-    <mergeCell ref="BA2:BF2"/>
-    <mergeCell ref="AV1:AZ1"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="U1:AI1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AO1:AU1"/>
-    <mergeCell ref="AO27:AT28"/>
-    <mergeCell ref="AU27:BF28"/>
-    <mergeCell ref="AO37:AT38"/>
-    <mergeCell ref="AU37:BF38"/>
-    <mergeCell ref="AO5:AT6"/>
-    <mergeCell ref="AU5:BF6"/>
-    <mergeCell ref="AO13:AT14"/>
-    <mergeCell ref="AO15:AT16"/>
-    <mergeCell ref="AO17:AT18"/>
-    <mergeCell ref="AO19:AT20"/>
-    <mergeCell ref="AU23:BF24"/>
-    <mergeCell ref="AO23:AT24"/>
-    <mergeCell ref="AO29:AT30"/>
+    <mergeCell ref="AO39:AT40"/>
+    <mergeCell ref="AU29:BF30"/>
+    <mergeCell ref="AU39:BF40"/>
+    <mergeCell ref="AO41:AT42"/>
+    <mergeCell ref="AU41:BF42"/>
+    <mergeCell ref="AO33:AT34"/>
+    <mergeCell ref="AU33:BF34"/>
+    <mergeCell ref="AO31:AT32"/>
+    <mergeCell ref="AO35:AT36"/>
+    <mergeCell ref="AU35:BF36"/>
+    <mergeCell ref="AU31:BF32"/>
+    <mergeCell ref="AO49:AT50"/>
+    <mergeCell ref="AU49:BF50"/>
+    <mergeCell ref="AO51:AT52"/>
+    <mergeCell ref="AU51:BF52"/>
+    <mergeCell ref="AO43:AT44"/>
+    <mergeCell ref="AU43:BF44"/>
+    <mergeCell ref="AO45:AT46"/>
+    <mergeCell ref="AU45:BF46"/>
+    <mergeCell ref="AO47:AT48"/>
+    <mergeCell ref="AU47:BF48"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="91" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/市場_2025改修/基本設計_2025/6_画面設計書(システム).xlsx
+++ b/市場_2025改修/基本設計_2025/6_画面設計書(システム).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\works\Git\si001\市場_2025改修\基本設計_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A02A922-A413-46F8-96BF-05F541A88AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2BC8BA-E3AC-496B-AFBD-A08F1AC9526A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="888" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1400,6 +1400,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1409,20 +1424,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1430,30 +1448,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1463,6 +1463,66 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1483,66 +1543,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2178,50 +2178,50 @@
     </row>
     <row r="6" spans="3:16" ht="22.5" customHeight="1">
       <c r="C6" s="13"/>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
       <c r="N6" s="14"/>
     </row>
     <row r="7" spans="3:16" ht="51" customHeight="1">
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="41"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="38"/>
     </row>
     <row r="8" spans="3:16" ht="39" customHeight="1">
       <c r="C8" s="13"/>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
       <c r="N8" s="14"/>
     </row>
     <row r="9" spans="3:16" ht="22.5" customHeight="1" thickBot="1">
@@ -2244,10 +2244,10 @@
         <v>18</v>
       </c>
       <c r="G12" s="33"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="36"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="41"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
@@ -2270,42 +2270,42 @@
         <v>20</v>
       </c>
       <c r="G14" s="33"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="36"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="41"/>
     </row>
     <row r="15" spans="3:16" ht="22.5" customHeight="1">
       <c r="F15" s="32" t="s">
         <v>21</v>
       </c>
       <c r="G15" s="33"/>
-      <c r="H15" s="34" t="s">
+      <c r="H15" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="36"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="41"/>
     </row>
     <row r="16" spans="3:16" ht="22.5" customHeight="1">
       <c r="F16" s="32" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="33"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="36"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="41"/>
     </row>
     <row r="17" spans="6:16" ht="22.5" customHeight="1">
       <c r="F17" s="32" t="s">
         <v>23</v>
       </c>
       <c r="G17" s="33"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="36"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="41"/>
       <c r="N17" s="7" t="s">
         <v>37</v>
       </c>
@@ -2335,12 +2335,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="C7:N7"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="F14:G14"/>
@@ -2349,6 +2343,12 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:K16"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="C7:N7"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2377,52 +2377,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="46" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
       <c r="P1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
       <c r="P2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" customHeight="1">
       <c r="A3" s="25"/>
@@ -2448,437 +2448,437 @@
       <c r="A4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43" t="s">
+      <c r="C4" s="49"/>
+      <c r="D4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43" t="s">
+      <c r="E4" s="49"/>
+      <c r="F4" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43" t="s">
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" customHeight="1">
       <c r="A5" s="27">
         <v>1</v>
       </c>
-      <c r="B5" s="47">
+      <c r="B5" s="45">
         <v>44621</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="48" t="s">
+      <c r="C5" s="45"/>
+      <c r="D5" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48" t="s">
+      <c r="E5" s="46"/>
+      <c r="F5" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" customHeight="1">
       <c r="A6" s="28">
         <v>2</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="43">
         <v>45870</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="50" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
     </row>
     <row r="7" spans="1:18" ht="27" customHeight="1">
       <c r="A7" s="28">
         <v>3</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
     </row>
     <row r="8" spans="1:18" ht="27" customHeight="1">
       <c r="A8" s="28">
         <v>4</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
     </row>
     <row r="9" spans="1:18" ht="27" customHeight="1">
       <c r="A9" s="28">
         <v>5</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
     </row>
     <row r="10" spans="1:18" ht="27" customHeight="1">
       <c r="A10" s="28">
         <v>6</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
     </row>
     <row r="11" spans="1:18" ht="27" customHeight="1">
       <c r="A11" s="28">
         <v>7</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="44"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
     </row>
     <row r="12" spans="1:18" ht="27" customHeight="1">
       <c r="A12" s="28">
         <v>8</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="44"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
     </row>
     <row r="13" spans="1:18" ht="27" customHeight="1">
       <c r="A13" s="28">
         <v>9</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="44"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
     </row>
     <row r="14" spans="1:18" ht="27" customHeight="1">
       <c r="A14" s="28">
         <v>10</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="44"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
     </row>
     <row r="15" spans="1:18" ht="27" customHeight="1">
       <c r="A15" s="28">
         <v>11</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
     </row>
     <row r="16" spans="1:18" ht="27" customHeight="1">
       <c r="A16" s="28">
         <v>12</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
     </row>
     <row r="17" spans="1:18" ht="27" customHeight="1">
       <c r="A17" s="28">
         <v>13</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
     </row>
     <row r="18" spans="1:18" ht="27" customHeight="1">
       <c r="A18" s="28">
         <v>14</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
     </row>
     <row r="19" spans="1:18" ht="27" customHeight="1">
       <c r="A19" s="28">
         <v>15</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="44"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
     </row>
     <row r="20" spans="1:18" ht="27" customHeight="1">
       <c r="A20" s="28">
         <v>16</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="44"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
     </row>
     <row r="21" spans="1:18" ht="27" customHeight="1">
       <c r="A21" s="28">
         <v>17</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="44"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
     </row>
     <row r="22" spans="1:18" ht="27" customHeight="1">
       <c r="A22" s="28">
         <v>18</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="44"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
     </row>
     <row r="23" spans="1:18" ht="27" customHeight="1"/>
     <row r="24" spans="1:18" ht="27" customHeight="1"/>
@@ -2889,14 +2889,62 @@
     <row r="29" spans="1:18" ht="27" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="I21:R21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:R22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="D1:O2"/>
+    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="I8:R8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:R6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="I11:R11"/>
+    <mergeCell ref="I12:R12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I9:R9"/>
+    <mergeCell ref="I10:R10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I15:R15"/>
+    <mergeCell ref="I16:R16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I13:R13"/>
+    <mergeCell ref="I14:R14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
     <mergeCell ref="I19:R19"/>
     <mergeCell ref="I20:R20"/>
     <mergeCell ref="B17:C17"/>
@@ -2913,62 +2961,14 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I15:R15"/>
-    <mergeCell ref="I16:R16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I13:R13"/>
-    <mergeCell ref="I14:R14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I11:R11"/>
-    <mergeCell ref="I12:R12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I9:R9"/>
-    <mergeCell ref="I10:R10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I8:R8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:R6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I5:R5"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="D1:O2"/>
-    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="I21:R21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:R22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -2985,7 +2985,7 @@
   <dimension ref="A1:BF52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:BF52"/>
+      <selection activeCell="BA2" sqref="BA2:BF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="10.8"/>
@@ -2994,216 +2994,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="30" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="73" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="79" t="str">
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="56" t="str">
         <f>表紙!C7</f>
         <v>施設使用料・償還金等料金計算及び納付書作成システム
 口座振替データ作成機能構築業務</v>
       </c>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
-      <c r="X1" s="80"/>
-      <c r="Y1" s="80"/>
-      <c r="Z1" s="80"/>
-      <c r="AA1" s="80"/>
-      <c r="AB1" s="80"/>
-      <c r="AC1" s="80"/>
-      <c r="AD1" s="80"/>
-      <c r="AE1" s="80"/>
-      <c r="AF1" s="80"/>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="80"/>
-      <c r="AI1" s="81"/>
-      <c r="AJ1" s="77" t="s">
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="AK1" s="77"/>
-      <c r="AL1" s="77"/>
-      <c r="AM1" s="77"/>
-      <c r="AN1" s="77"/>
-      <c r="AO1" s="72" t="s">
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="AP1" s="72"/>
-      <c r="AQ1" s="72"/>
-      <c r="AR1" s="72"/>
-      <c r="AS1" s="72"/>
-      <c r="AT1" s="72"/>
-      <c r="AU1" s="72"/>
-      <c r="AV1" s="77" t="s">
+      <c r="AP1" s="60"/>
+      <c r="AQ1" s="60"/>
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="60"/>
+      <c r="AT1" s="60"/>
+      <c r="AU1" s="60"/>
+      <c r="AV1" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="AW1" s="77"/>
-      <c r="AX1" s="77"/>
-      <c r="AY1" s="77"/>
-      <c r="AZ1" s="77"/>
-      <c r="BA1" s="72" t="s">
+      <c r="AW1" s="59"/>
+      <c r="AX1" s="59"/>
+      <c r="AY1" s="59"/>
+      <c r="AZ1" s="59"/>
+      <c r="BA1" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="BB1" s="72"/>
-      <c r="BC1" s="72"/>
-      <c r="BD1" s="72"/>
-      <c r="BE1" s="72"/>
-      <c r="BF1" s="72"/>
+      <c r="BB1" s="60"/>
+      <c r="BC1" s="60"/>
+      <c r="BD1" s="60"/>
+      <c r="BE1" s="60"/>
+      <c r="BF1" s="60"/>
     </row>
     <row r="2" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="73" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="74" t="s">
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="75"/>
-      <c r="Y2" s="75"/>
-      <c r="Z2" s="75"/>
-      <c r="AA2" s="75"/>
-      <c r="AB2" s="75"/>
-      <c r="AC2" s="75"/>
-      <c r="AD2" s="75"/>
-      <c r="AE2" s="75"/>
-      <c r="AF2" s="75"/>
-      <c r="AG2" s="75"/>
-      <c r="AH2" s="75"/>
-      <c r="AI2" s="76"/>
-      <c r="AJ2" s="77" t="s">
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="62"/>
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="62"/>
+      <c r="AF2" s="62"/>
+      <c r="AG2" s="62"/>
+      <c r="AH2" s="62"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="77"/>
-      <c r="AL2" s="77"/>
-      <c r="AM2" s="77"/>
-      <c r="AN2" s="77"/>
-      <c r="AO2" s="78">
+      <c r="AK2" s="59"/>
+      <c r="AL2" s="59"/>
+      <c r="AM2" s="59"/>
+      <c r="AN2" s="59"/>
+      <c r="AO2" s="64">
         <v>44752</v>
       </c>
-      <c r="AP2" s="72"/>
-      <c r="AQ2" s="72"/>
-      <c r="AR2" s="72"/>
-      <c r="AS2" s="72"/>
-      <c r="AT2" s="72"/>
-      <c r="AU2" s="72"/>
-      <c r="AV2" s="77" t="s">
+      <c r="AP2" s="60"/>
+      <c r="AQ2" s="60"/>
+      <c r="AR2" s="60"/>
+      <c r="AS2" s="60"/>
+      <c r="AT2" s="60"/>
+      <c r="AU2" s="60"/>
+      <c r="AV2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="AW2" s="77"/>
-      <c r="AX2" s="77"/>
-      <c r="AY2" s="77"/>
-      <c r="AZ2" s="77"/>
-      <c r="BA2" s="78">
-        <v>45855</v>
-      </c>
-      <c r="BB2" s="72"/>
-      <c r="BC2" s="72"/>
-      <c r="BD2" s="72"/>
-      <c r="BE2" s="72"/>
-      <c r="BF2" s="72"/>
+      <c r="AW2" s="59"/>
+      <c r="AX2" s="59"/>
+      <c r="AY2" s="59"/>
+      <c r="AZ2" s="59"/>
+      <c r="BA2" s="64">
+        <v>45884</v>
+      </c>
+      <c r="BB2" s="60"/>
+      <c r="BC2" s="60"/>
+      <c r="BD2" s="60"/>
+      <c r="BE2" s="60"/>
+      <c r="BF2" s="60"/>
     </row>
     <row r="3" spans="1:58" ht="15" customHeight="1">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="64"/>
-      <c r="AD3" s="64"/>
-      <c r="AE3" s="64"/>
-      <c r="AF3" s="64"/>
-      <c r="AG3" s="64"/>
-      <c r="AH3" s="64"/>
-      <c r="AI3" s="64"/>
-      <c r="AJ3" s="64"/>
-      <c r="AK3" s="64"/>
-      <c r="AL3" s="64"/>
-      <c r="AM3" s="64"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="63" t="s">
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="66"/>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66"/>
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="66"/>
+      <c r="AK3" s="66"/>
+      <c r="AL3" s="66"/>
+      <c r="AM3" s="66"/>
+      <c r="AN3" s="67"/>
+      <c r="AO3" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="AP3" s="64"/>
-      <c r="AQ3" s="64"/>
-      <c r="AR3" s="64"/>
-      <c r="AS3" s="64"/>
-      <c r="AT3" s="64"/>
-      <c r="AU3" s="64"/>
-      <c r="AV3" s="64"/>
-      <c r="AW3" s="64"/>
-      <c r="AX3" s="64"/>
-      <c r="AY3" s="64"/>
-      <c r="AZ3" s="64"/>
-      <c r="BA3" s="64"/>
-      <c r="BB3" s="64"/>
-      <c r="BC3" s="64"/>
-      <c r="BD3" s="64"/>
-      <c r="BE3" s="64"/>
-      <c r="BF3" s="65"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="66"/>
+      <c r="AR3" s="66"/>
+      <c r="AS3" s="66"/>
+      <c r="AT3" s="66"/>
+      <c r="AU3" s="66"/>
+      <c r="AV3" s="66"/>
+      <c r="AW3" s="66"/>
+      <c r="AX3" s="66"/>
+      <c r="AY3" s="66"/>
+      <c r="AZ3" s="66"/>
+      <c r="BA3" s="66"/>
+      <c r="BB3" s="66"/>
+      <c r="BC3" s="66"/>
+      <c r="BD3" s="66"/>
+      <c r="BE3" s="66"/>
+      <c r="BF3" s="67"/>
     </row>
     <row r="4" spans="1:58">
       <c r="A4" s="2"/>
@@ -3217,11 +3217,11 @@
       <c r="AO5" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="AP5" s="44"/>
-      <c r="AQ5" s="44"/>
-      <c r="AR5" s="44"/>
-      <c r="AS5" s="44"/>
-      <c r="AT5" s="44"/>
+      <c r="AP5" s="42"/>
+      <c r="AQ5" s="42"/>
+      <c r="AR5" s="42"/>
+      <c r="AS5" s="42"/>
+      <c r="AT5" s="42"/>
       <c r="AU5" s="53" t="s">
         <v>60</v>
       </c>
@@ -3241,11 +3241,11 @@
       <c r="A6" s="2"/>
       <c r="AN6" s="3"/>
       <c r="AO6" s="52"/>
-      <c r="AP6" s="44"/>
-      <c r="AQ6" s="44"/>
-      <c r="AR6" s="44"/>
-      <c r="AS6" s="44"/>
-      <c r="AT6" s="44"/>
+      <c r="AP6" s="42"/>
+      <c r="AQ6" s="42"/>
+      <c r="AR6" s="42"/>
+      <c r="AS6" s="42"/>
+      <c r="AT6" s="42"/>
       <c r="AU6" s="53"/>
       <c r="AV6" s="53"/>
       <c r="AW6" s="53"/>
@@ -3262,14 +3262,14 @@
     <row r="7" spans="1:58">
       <c r="A7" s="2"/>
       <c r="AN7" s="3"/>
-      <c r="AO7" s="66" t="s">
+      <c r="AO7" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="AP7" s="67"/>
-      <c r="AQ7" s="67"/>
-      <c r="AR7" s="67"/>
-      <c r="AS7" s="67"/>
-      <c r="AT7" s="68"/>
+      <c r="AP7" s="69"/>
+      <c r="AQ7" s="69"/>
+      <c r="AR7" s="69"/>
+      <c r="AS7" s="69"/>
+      <c r="AT7" s="70"/>
       <c r="AU7" s="53" t="s">
         <v>42</v>
       </c>
@@ -3288,12 +3288,12 @@
     <row r="8" spans="1:58">
       <c r="A8" s="2"/>
       <c r="AN8" s="3"/>
-      <c r="AO8" s="69"/>
-      <c r="AP8" s="70"/>
-      <c r="AQ8" s="70"/>
-      <c r="AR8" s="70"/>
-      <c r="AS8" s="70"/>
-      <c r="AT8" s="71"/>
+      <c r="AO8" s="71"/>
+      <c r="AP8" s="72"/>
+      <c r="AQ8" s="72"/>
+      <c r="AR8" s="72"/>
+      <c r="AS8" s="72"/>
+      <c r="AT8" s="73"/>
       <c r="AU8" s="53"/>
       <c r="AV8" s="53"/>
       <c r="AW8" s="53"/>
@@ -3313,11 +3313,11 @@
       <c r="AO9" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="AP9" s="44"/>
-      <c r="AQ9" s="44"/>
-      <c r="AR9" s="44"/>
-      <c r="AS9" s="44"/>
-      <c r="AT9" s="44"/>
+      <c r="AP9" s="42"/>
+      <c r="AQ9" s="42"/>
+      <c r="AR9" s="42"/>
+      <c r="AS9" s="42"/>
+      <c r="AT9" s="42"/>
       <c r="AU9" s="53" t="s">
         <v>33</v>
       </c>
@@ -3337,11 +3337,11 @@
       <c r="A10" s="2"/>
       <c r="AN10" s="3"/>
       <c r="AO10" s="52"/>
-      <c r="AP10" s="44"/>
-      <c r="AQ10" s="44"/>
-      <c r="AR10" s="44"/>
-      <c r="AS10" s="44"/>
-      <c r="AT10" s="44"/>
+      <c r="AP10" s="42"/>
+      <c r="AQ10" s="42"/>
+      <c r="AR10" s="42"/>
+      <c r="AS10" s="42"/>
+      <c r="AT10" s="42"/>
       <c r="AU10" s="53"/>
       <c r="AV10" s="53"/>
       <c r="AW10" s="53"/>
@@ -3361,11 +3361,11 @@
       <c r="AO11" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="AP11" s="44"/>
-      <c r="AQ11" s="44"/>
-      <c r="AR11" s="44"/>
-      <c r="AS11" s="44"/>
-      <c r="AT11" s="44"/>
+      <c r="AP11" s="42"/>
+      <c r="AQ11" s="42"/>
+      <c r="AR11" s="42"/>
+      <c r="AS11" s="42"/>
+      <c r="AT11" s="42"/>
       <c r="AU11" s="53" t="s">
         <v>34</v>
       </c>
@@ -3385,11 +3385,11 @@
       <c r="A12" s="2"/>
       <c r="AN12" s="3"/>
       <c r="AO12" s="52"/>
-      <c r="AP12" s="44"/>
-      <c r="AQ12" s="44"/>
-      <c r="AR12" s="44"/>
-      <c r="AS12" s="44"/>
-      <c r="AT12" s="44"/>
+      <c r="AP12" s="42"/>
+      <c r="AQ12" s="42"/>
+      <c r="AR12" s="42"/>
+      <c r="AS12" s="42"/>
+      <c r="AT12" s="42"/>
       <c r="AU12" s="53"/>
       <c r="AV12" s="53"/>
       <c r="AW12" s="53"/>
@@ -3409,11 +3409,11 @@
       <c r="AO13" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="AP13" s="44"/>
-      <c r="AQ13" s="44"/>
-      <c r="AR13" s="44"/>
-      <c r="AS13" s="44"/>
-      <c r="AT13" s="44"/>
+      <c r="AP13" s="42"/>
+      <c r="AQ13" s="42"/>
+      <c r="AR13" s="42"/>
+      <c r="AS13" s="42"/>
+      <c r="AT13" s="42"/>
       <c r="AU13" s="53" t="s">
         <v>35</v>
       </c>
@@ -3433,11 +3433,11 @@
       <c r="A14" s="2"/>
       <c r="AN14" s="3"/>
       <c r="AO14" s="52"/>
-      <c r="AP14" s="44"/>
-      <c r="AQ14" s="44"/>
-      <c r="AR14" s="44"/>
-      <c r="AS14" s="44"/>
-      <c r="AT14" s="44"/>
+      <c r="AP14" s="42"/>
+      <c r="AQ14" s="42"/>
+      <c r="AR14" s="42"/>
+      <c r="AS14" s="42"/>
+      <c r="AT14" s="42"/>
       <c r="AU14" s="53"/>
       <c r="AV14" s="53"/>
       <c r="AW14" s="53"/>
@@ -3457,11 +3457,11 @@
       <c r="AO15" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="AP15" s="44"/>
-      <c r="AQ15" s="44"/>
-      <c r="AR15" s="44"/>
-      <c r="AS15" s="44"/>
-      <c r="AT15" s="44"/>
+      <c r="AP15" s="42"/>
+      <c r="AQ15" s="42"/>
+      <c r="AR15" s="42"/>
+      <c r="AS15" s="42"/>
+      <c r="AT15" s="42"/>
       <c r="AU15" s="53" t="s">
         <v>75</v>
       </c>
@@ -3481,11 +3481,11 @@
       <c r="A16" s="2"/>
       <c r="AN16" s="3"/>
       <c r="AO16" s="52"/>
-      <c r="AP16" s="44"/>
-      <c r="AQ16" s="44"/>
-      <c r="AR16" s="44"/>
-      <c r="AS16" s="44"/>
-      <c r="AT16" s="44"/>
+      <c r="AP16" s="42"/>
+      <c r="AQ16" s="42"/>
+      <c r="AR16" s="42"/>
+      <c r="AS16" s="42"/>
+      <c r="AT16" s="42"/>
       <c r="AU16" s="53"/>
       <c r="AV16" s="53"/>
       <c r="AW16" s="53"/>
@@ -3505,11 +3505,11 @@
       <c r="AO17" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="AP17" s="44"/>
-      <c r="AQ17" s="44"/>
-      <c r="AR17" s="44"/>
-      <c r="AS17" s="44"/>
-      <c r="AT17" s="44"/>
+      <c r="AP17" s="42"/>
+      <c r="AQ17" s="42"/>
+      <c r="AR17" s="42"/>
+      <c r="AS17" s="42"/>
+      <c r="AT17" s="42"/>
       <c r="AU17" s="53" t="s">
         <v>36</v>
       </c>
@@ -3529,11 +3529,11 @@
       <c r="A18" s="2"/>
       <c r="AN18" s="3"/>
       <c r="AO18" s="52"/>
-      <c r="AP18" s="44"/>
-      <c r="AQ18" s="44"/>
-      <c r="AR18" s="44"/>
-      <c r="AS18" s="44"/>
-      <c r="AT18" s="44"/>
+      <c r="AP18" s="42"/>
+      <c r="AQ18" s="42"/>
+      <c r="AR18" s="42"/>
+      <c r="AS18" s="42"/>
+      <c r="AT18" s="42"/>
       <c r="AU18" s="53"/>
       <c r="AV18" s="53"/>
       <c r="AW18" s="53"/>
@@ -3553,11 +3553,11 @@
       <c r="AO19" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="AP19" s="44"/>
-      <c r="AQ19" s="44"/>
-      <c r="AR19" s="44"/>
-      <c r="AS19" s="44"/>
-      <c r="AT19" s="44"/>
+      <c r="AP19" s="42"/>
+      <c r="AQ19" s="42"/>
+      <c r="AR19" s="42"/>
+      <c r="AS19" s="42"/>
+      <c r="AT19" s="42"/>
       <c r="AU19" s="53" t="s">
         <v>73</v>
       </c>
@@ -3577,11 +3577,11 @@
       <c r="A20" s="2"/>
       <c r="AN20" s="3"/>
       <c r="AO20" s="52"/>
-      <c r="AP20" s="44"/>
-      <c r="AQ20" s="44"/>
-      <c r="AR20" s="44"/>
-      <c r="AS20" s="44"/>
-      <c r="AT20" s="44"/>
+      <c r="AP20" s="42"/>
+      <c r="AQ20" s="42"/>
+      <c r="AR20" s="42"/>
+      <c r="AS20" s="42"/>
+      <c r="AT20" s="42"/>
       <c r="AU20" s="53"/>
       <c r="AV20" s="53"/>
       <c r="AW20" s="53"/>
@@ -3601,11 +3601,11 @@
       <c r="AO21" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="AP21" s="44"/>
-      <c r="AQ21" s="44"/>
-      <c r="AR21" s="44"/>
-      <c r="AS21" s="44"/>
-      <c r="AT21" s="44"/>
+      <c r="AP21" s="42"/>
+      <c r="AQ21" s="42"/>
+      <c r="AR21" s="42"/>
+      <c r="AS21" s="42"/>
+      <c r="AT21" s="42"/>
       <c r="AU21" s="53" t="s">
         <v>72</v>
       </c>
@@ -3625,11 +3625,11 @@
       <c r="A22" s="2"/>
       <c r="AN22" s="3"/>
       <c r="AO22" s="52"/>
-      <c r="AP22" s="44"/>
-      <c r="AQ22" s="44"/>
-      <c r="AR22" s="44"/>
-      <c r="AS22" s="44"/>
-      <c r="AT22" s="44"/>
+      <c r="AP22" s="42"/>
+      <c r="AQ22" s="42"/>
+      <c r="AR22" s="42"/>
+      <c r="AS22" s="42"/>
+      <c r="AT22" s="42"/>
       <c r="AU22" s="53"/>
       <c r="AV22" s="53"/>
       <c r="AW22" s="53"/>
@@ -3649,11 +3649,11 @@
       <c r="AO23" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="AP23" s="44"/>
-      <c r="AQ23" s="44"/>
-      <c r="AR23" s="44"/>
-      <c r="AS23" s="44"/>
-      <c r="AT23" s="44"/>
+      <c r="AP23" s="42"/>
+      <c r="AQ23" s="42"/>
+      <c r="AR23" s="42"/>
+      <c r="AS23" s="42"/>
+      <c r="AT23" s="42"/>
       <c r="AU23" s="53" t="s">
         <v>70</v>
       </c>
@@ -3673,11 +3673,11 @@
       <c r="A24" s="2"/>
       <c r="AN24" s="3"/>
       <c r="AO24" s="52"/>
-      <c r="AP24" s="44"/>
-      <c r="AQ24" s="44"/>
-      <c r="AR24" s="44"/>
-      <c r="AS24" s="44"/>
-      <c r="AT24" s="44"/>
+      <c r="AP24" s="42"/>
+      <c r="AQ24" s="42"/>
+      <c r="AR24" s="42"/>
+      <c r="AS24" s="42"/>
+      <c r="AT24" s="42"/>
       <c r="AU24" s="53"/>
       <c r="AV24" s="53"/>
       <c r="AW24" s="53"/>
@@ -3694,14 +3694,14 @@
     <row r="25" spans="1:58" ht="11.25" customHeight="1">
       <c r="A25" s="2"/>
       <c r="AN25" s="3"/>
-      <c r="AO25" s="66" t="s">
+      <c r="AO25" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="AP25" s="67"/>
-      <c r="AQ25" s="67"/>
-      <c r="AR25" s="67"/>
-      <c r="AS25" s="67"/>
-      <c r="AT25" s="68"/>
+      <c r="AP25" s="69"/>
+      <c r="AQ25" s="69"/>
+      <c r="AR25" s="69"/>
+      <c r="AS25" s="69"/>
+      <c r="AT25" s="70"/>
       <c r="AU25" s="53" t="s">
         <v>45</v>
       </c>
@@ -3720,12 +3720,12 @@
     <row r="26" spans="1:58">
       <c r="A26" s="2"/>
       <c r="AN26" s="3"/>
-      <c r="AO26" s="69"/>
-      <c r="AP26" s="70"/>
-      <c r="AQ26" s="70"/>
-      <c r="AR26" s="70"/>
-      <c r="AS26" s="70"/>
-      <c r="AT26" s="71"/>
+      <c r="AO26" s="71"/>
+      <c r="AP26" s="72"/>
+      <c r="AQ26" s="72"/>
+      <c r="AR26" s="72"/>
+      <c r="AS26" s="72"/>
+      <c r="AT26" s="73"/>
       <c r="AU26" s="53"/>
       <c r="AV26" s="53"/>
       <c r="AW26" s="53"/>
@@ -3745,11 +3745,11 @@
       <c r="AO27" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="AP27" s="44"/>
-      <c r="AQ27" s="44"/>
-      <c r="AR27" s="44"/>
-      <c r="AS27" s="44"/>
-      <c r="AT27" s="44"/>
+      <c r="AP27" s="42"/>
+      <c r="AQ27" s="42"/>
+      <c r="AR27" s="42"/>
+      <c r="AS27" s="42"/>
+      <c r="AT27" s="42"/>
       <c r="AU27" s="53" t="s">
         <v>44</v>
       </c>
@@ -3769,11 +3769,11 @@
       <c r="A28" s="2"/>
       <c r="AN28" s="3"/>
       <c r="AO28" s="52"/>
-      <c r="AP28" s="44"/>
-      <c r="AQ28" s="44"/>
-      <c r="AR28" s="44"/>
-      <c r="AS28" s="44"/>
-      <c r="AT28" s="44"/>
+      <c r="AP28" s="42"/>
+      <c r="AQ28" s="42"/>
+      <c r="AR28" s="42"/>
+      <c r="AS28" s="42"/>
+      <c r="AT28" s="42"/>
       <c r="AU28" s="53"/>
       <c r="AV28" s="53"/>
       <c r="AW28" s="53"/>
@@ -3793,11 +3793,11 @@
       <c r="AO29" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="AP29" s="44"/>
-      <c r="AQ29" s="44"/>
-      <c r="AR29" s="44"/>
-      <c r="AS29" s="44"/>
-      <c r="AT29" s="44"/>
+      <c r="AP29" s="42"/>
+      <c r="AQ29" s="42"/>
+      <c r="AR29" s="42"/>
+      <c r="AS29" s="42"/>
+      <c r="AT29" s="42"/>
       <c r="AU29" s="53" t="s">
         <v>66</v>
       </c>
@@ -3817,11 +3817,11 @@
       <c r="A30" s="2"/>
       <c r="AN30" s="3"/>
       <c r="AO30" s="52"/>
-      <c r="AP30" s="44"/>
-      <c r="AQ30" s="44"/>
-      <c r="AR30" s="44"/>
-      <c r="AS30" s="44"/>
-      <c r="AT30" s="44"/>
+      <c r="AP30" s="42"/>
+      <c r="AQ30" s="42"/>
+      <c r="AR30" s="42"/>
+      <c r="AS30" s="42"/>
+      <c r="AT30" s="42"/>
       <c r="AU30" s="53"/>
       <c r="AV30" s="53"/>
       <c r="AW30" s="53"/>
@@ -3841,11 +3841,11 @@
       <c r="AO31" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="AP31" s="44"/>
-      <c r="AQ31" s="44"/>
-      <c r="AR31" s="44"/>
-      <c r="AS31" s="44"/>
-      <c r="AT31" s="44"/>
+      <c r="AP31" s="42"/>
+      <c r="AQ31" s="42"/>
+      <c r="AR31" s="42"/>
+      <c r="AS31" s="42"/>
+      <c r="AT31" s="42"/>
       <c r="AU31" s="53" t="s">
         <v>67</v>
       </c>
@@ -3865,11 +3865,11 @@
       <c r="A32" s="2"/>
       <c r="AN32" s="3"/>
       <c r="AO32" s="52"/>
-      <c r="AP32" s="44"/>
-      <c r="AQ32" s="44"/>
-      <c r="AR32" s="44"/>
-      <c r="AS32" s="44"/>
-      <c r="AT32" s="44"/>
+      <c r="AP32" s="42"/>
+      <c r="AQ32" s="42"/>
+      <c r="AR32" s="42"/>
+      <c r="AS32" s="42"/>
+      <c r="AT32" s="42"/>
       <c r="AU32" s="53"/>
       <c r="AV32" s="53"/>
       <c r="AW32" s="53"/>
@@ -3889,11 +3889,11 @@
       <c r="AO33" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="AP33" s="44"/>
-      <c r="AQ33" s="44"/>
-      <c r="AR33" s="44"/>
-      <c r="AS33" s="44"/>
-      <c r="AT33" s="44"/>
+      <c r="AP33" s="42"/>
+      <c r="AQ33" s="42"/>
+      <c r="AR33" s="42"/>
+      <c r="AS33" s="42"/>
+      <c r="AT33" s="42"/>
       <c r="AU33" s="53" t="s">
         <v>43</v>
       </c>
@@ -3913,11 +3913,11 @@
       <c r="A34" s="2"/>
       <c r="AN34" s="3"/>
       <c r="AO34" s="52"/>
-      <c r="AP34" s="44"/>
-      <c r="AQ34" s="44"/>
-      <c r="AR34" s="44"/>
-      <c r="AS34" s="44"/>
-      <c r="AT34" s="44"/>
+      <c r="AP34" s="42"/>
+      <c r="AQ34" s="42"/>
+      <c r="AR34" s="42"/>
+      <c r="AS34" s="42"/>
+      <c r="AT34" s="42"/>
       <c r="AU34" s="53"/>
       <c r="AV34" s="53"/>
       <c r="AW34" s="53"/>
@@ -3937,11 +3937,11 @@
       <c r="AO35" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="AP35" s="44"/>
-      <c r="AQ35" s="44"/>
-      <c r="AR35" s="44"/>
-      <c r="AS35" s="44"/>
-      <c r="AT35" s="44"/>
+      <c r="AP35" s="42"/>
+      <c r="AQ35" s="42"/>
+      <c r="AR35" s="42"/>
+      <c r="AS35" s="42"/>
+      <c r="AT35" s="42"/>
       <c r="AU35" s="53" t="s">
         <v>43</v>
       </c>
@@ -3961,11 +3961,11 @@
       <c r="A36" s="2"/>
       <c r="AN36" s="3"/>
       <c r="AO36" s="52"/>
-      <c r="AP36" s="44"/>
-      <c r="AQ36" s="44"/>
-      <c r="AR36" s="44"/>
-      <c r="AS36" s="44"/>
-      <c r="AT36" s="44"/>
+      <c r="AP36" s="42"/>
+      <c r="AQ36" s="42"/>
+      <c r="AR36" s="42"/>
+      <c r="AS36" s="42"/>
+      <c r="AT36" s="42"/>
       <c r="AU36" s="53"/>
       <c r="AV36" s="53"/>
       <c r="AW36" s="53"/>
@@ -3985,11 +3985,11 @@
       <c r="AO37" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="AP37" s="44"/>
-      <c r="AQ37" s="44"/>
-      <c r="AR37" s="44"/>
-      <c r="AS37" s="44"/>
-      <c r="AT37" s="44"/>
+      <c r="AP37" s="42"/>
+      <c r="AQ37" s="42"/>
+      <c r="AR37" s="42"/>
+      <c r="AS37" s="42"/>
+      <c r="AT37" s="42"/>
       <c r="AU37" s="53" t="s">
         <v>43</v>
       </c>
@@ -4009,11 +4009,11 @@
       <c r="A38" s="2"/>
       <c r="AN38" s="3"/>
       <c r="AO38" s="52"/>
-      <c r="AP38" s="44"/>
-      <c r="AQ38" s="44"/>
-      <c r="AR38" s="44"/>
-      <c r="AS38" s="44"/>
-      <c r="AT38" s="44"/>
+      <c r="AP38" s="42"/>
+      <c r="AQ38" s="42"/>
+      <c r="AR38" s="42"/>
+      <c r="AS38" s="42"/>
+      <c r="AT38" s="42"/>
       <c r="AU38" s="53"/>
       <c r="AV38" s="53"/>
       <c r="AW38" s="53"/>
@@ -4033,11 +4033,11 @@
       <c r="AO39" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="AP39" s="44"/>
-      <c r="AQ39" s="44"/>
-      <c r="AR39" s="44"/>
-      <c r="AS39" s="44"/>
-      <c r="AT39" s="44"/>
+      <c r="AP39" s="42"/>
+      <c r="AQ39" s="42"/>
+      <c r="AR39" s="42"/>
+      <c r="AS39" s="42"/>
+      <c r="AT39" s="42"/>
       <c r="AU39" s="53" t="s">
         <v>43</v>
       </c>
@@ -4057,11 +4057,11 @@
       <c r="A40" s="2"/>
       <c r="AN40" s="3"/>
       <c r="AO40" s="52"/>
-      <c r="AP40" s="44"/>
-      <c r="AQ40" s="44"/>
-      <c r="AR40" s="44"/>
-      <c r="AS40" s="44"/>
-      <c r="AT40" s="44"/>
+      <c r="AP40" s="42"/>
+      <c r="AQ40" s="42"/>
+      <c r="AR40" s="42"/>
+      <c r="AS40" s="42"/>
+      <c r="AT40" s="42"/>
       <c r="AU40" s="53"/>
       <c r="AV40" s="53"/>
       <c r="AW40" s="53"/>
@@ -4078,7 +4078,7 @@
     <row r="41" spans="1:58" ht="11.25" customHeight="1">
       <c r="A41" s="2"/>
       <c r="AN41" s="3"/>
-      <c r="AO41" s="62" t="s">
+      <c r="AO41" s="74" t="s">
         <v>61</v>
       </c>
       <c r="AP41" s="53"/>
@@ -4104,7 +4104,7 @@
     <row r="42" spans="1:58">
       <c r="A42" s="2"/>
       <c r="AN42" s="3"/>
-      <c r="AO42" s="62"/>
+      <c r="AO42" s="74"/>
       <c r="AP42" s="53"/>
       <c r="AQ42" s="53"/>
       <c r="AR42" s="53"/>
@@ -4129,11 +4129,11 @@
       <c r="AO43" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="AP43" s="44"/>
-      <c r="AQ43" s="44"/>
-      <c r="AR43" s="44"/>
-      <c r="AS43" s="44"/>
-      <c r="AT43" s="44"/>
+      <c r="AP43" s="42"/>
+      <c r="AQ43" s="42"/>
+      <c r="AR43" s="42"/>
+      <c r="AS43" s="42"/>
+      <c r="AT43" s="42"/>
       <c r="AU43" s="53" t="s">
         <v>51</v>
       </c>
@@ -4153,11 +4153,11 @@
       <c r="A44" s="2"/>
       <c r="AN44" s="3"/>
       <c r="AO44" s="52"/>
-      <c r="AP44" s="44"/>
-      <c r="AQ44" s="44"/>
-      <c r="AR44" s="44"/>
-      <c r="AS44" s="44"/>
-      <c r="AT44" s="44"/>
+      <c r="AP44" s="42"/>
+      <c r="AQ44" s="42"/>
+      <c r="AR44" s="42"/>
+      <c r="AS44" s="42"/>
+      <c r="AT44" s="42"/>
       <c r="AU44" s="53"/>
       <c r="AV44" s="53"/>
       <c r="AW44" s="53"/>
@@ -4177,11 +4177,11 @@
       <c r="AO45" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="AP45" s="44"/>
-      <c r="AQ45" s="44"/>
-      <c r="AR45" s="44"/>
-      <c r="AS45" s="44"/>
-      <c r="AT45" s="44"/>
+      <c r="AP45" s="42"/>
+      <c r="AQ45" s="42"/>
+      <c r="AR45" s="42"/>
+      <c r="AS45" s="42"/>
+      <c r="AT45" s="42"/>
       <c r="AU45" s="53" t="s">
         <v>62</v>
       </c>
@@ -4201,11 +4201,11 @@
       <c r="A46" s="2"/>
       <c r="AN46" s="3"/>
       <c r="AO46" s="52"/>
-      <c r="AP46" s="44"/>
-      <c r="AQ46" s="44"/>
-      <c r="AR46" s="44"/>
-      <c r="AS46" s="44"/>
-      <c r="AT46" s="44"/>
+      <c r="AP46" s="42"/>
+      <c r="AQ46" s="42"/>
+      <c r="AR46" s="42"/>
+      <c r="AS46" s="42"/>
+      <c r="AT46" s="42"/>
       <c r="AU46" s="53"/>
       <c r="AV46" s="53"/>
       <c r="AW46" s="53"/>
@@ -4225,11 +4225,11 @@
       <c r="AO47" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="AP47" s="44"/>
-      <c r="AQ47" s="44"/>
-      <c r="AR47" s="44"/>
-      <c r="AS47" s="44"/>
-      <c r="AT47" s="44"/>
+      <c r="AP47" s="42"/>
+      <c r="AQ47" s="42"/>
+      <c r="AR47" s="42"/>
+      <c r="AS47" s="42"/>
+      <c r="AT47" s="42"/>
       <c r="AU47" s="53" t="s">
         <v>63</v>
       </c>
@@ -4249,11 +4249,11 @@
       <c r="A48" s="2"/>
       <c r="AN48" s="3"/>
       <c r="AO48" s="52"/>
-      <c r="AP48" s="44"/>
-      <c r="AQ48" s="44"/>
-      <c r="AR48" s="44"/>
-      <c r="AS48" s="44"/>
-      <c r="AT48" s="44"/>
+      <c r="AP48" s="42"/>
+      <c r="AQ48" s="42"/>
+      <c r="AR48" s="42"/>
+      <c r="AS48" s="42"/>
+      <c r="AT48" s="42"/>
       <c r="AU48" s="53"/>
       <c r="AV48" s="53"/>
       <c r="AW48" s="53"/>
@@ -4273,11 +4273,11 @@
       <c r="AO49" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="AP49" s="44"/>
-      <c r="AQ49" s="44"/>
-      <c r="AR49" s="44"/>
-      <c r="AS49" s="44"/>
-      <c r="AT49" s="44"/>
+      <c r="AP49" s="42"/>
+      <c r="AQ49" s="42"/>
+      <c r="AR49" s="42"/>
+      <c r="AS49" s="42"/>
+      <c r="AT49" s="42"/>
       <c r="AU49" s="53" t="s">
         <v>57</v>
       </c>
@@ -4297,11 +4297,11 @@
       <c r="A50" s="2"/>
       <c r="AN50" s="3"/>
       <c r="AO50" s="52"/>
-      <c r="AP50" s="44"/>
-      <c r="AQ50" s="44"/>
-      <c r="AR50" s="44"/>
-      <c r="AS50" s="44"/>
-      <c r="AT50" s="44"/>
+      <c r="AP50" s="42"/>
+      <c r="AQ50" s="42"/>
+      <c r="AR50" s="42"/>
+      <c r="AS50" s="42"/>
+      <c r="AT50" s="42"/>
       <c r="AU50" s="53"/>
       <c r="AV50" s="53"/>
       <c r="AW50" s="53"/>
@@ -4318,28 +4318,28 @@
     <row r="51" spans="1:58">
       <c r="A51" s="2"/>
       <c r="AN51" s="3"/>
-      <c r="AO51" s="55" t="s">
+      <c r="AO51" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="AP51" s="51"/>
-      <c r="AQ51" s="51"/>
-      <c r="AR51" s="51"/>
-      <c r="AS51" s="51"/>
-      <c r="AT51" s="51"/>
-      <c r="AU51" s="58" t="s">
+      <c r="AP51" s="47"/>
+      <c r="AQ51" s="47"/>
+      <c r="AR51" s="47"/>
+      <c r="AS51" s="47"/>
+      <c r="AT51" s="47"/>
+      <c r="AU51" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="AV51" s="58"/>
-      <c r="AW51" s="58"/>
-      <c r="AX51" s="58"/>
-      <c r="AY51" s="58"/>
-      <c r="AZ51" s="58"/>
-      <c r="BA51" s="58"/>
-      <c r="BB51" s="58"/>
-      <c r="BC51" s="58"/>
-      <c r="BD51" s="58"/>
-      <c r="BE51" s="58"/>
-      <c r="BF51" s="59"/>
+      <c r="AV51" s="78"/>
+      <c r="AW51" s="78"/>
+      <c r="AX51" s="78"/>
+      <c r="AY51" s="78"/>
+      <c r="AZ51" s="78"/>
+      <c r="BA51" s="78"/>
+      <c r="BB51" s="78"/>
+      <c r="BC51" s="78"/>
+      <c r="BD51" s="78"/>
+      <c r="BE51" s="78"/>
+      <c r="BF51" s="79"/>
     </row>
     <row r="52" spans="1:58">
       <c r="A52" s="4"/>
@@ -4382,53 +4382,48 @@
       <c r="AL52" s="5"/>
       <c r="AM52" s="5"/>
       <c r="AN52" s="6"/>
-      <c r="AO52" s="56"/>
-      <c r="AP52" s="57"/>
-      <c r="AQ52" s="57"/>
-      <c r="AR52" s="57"/>
-      <c r="AS52" s="57"/>
-      <c r="AT52" s="57"/>
-      <c r="AU52" s="60"/>
-      <c r="AV52" s="60"/>
-      <c r="AW52" s="60"/>
-      <c r="AX52" s="60"/>
-      <c r="AY52" s="60"/>
-      <c r="AZ52" s="60"/>
-      <c r="BA52" s="60"/>
-      <c r="BB52" s="60"/>
-      <c r="BC52" s="60"/>
-      <c r="BD52" s="60"/>
-      <c r="BE52" s="60"/>
-      <c r="BF52" s="61"/>
+      <c r="AO52" s="76"/>
+      <c r="AP52" s="77"/>
+      <c r="AQ52" s="77"/>
+      <c r="AR52" s="77"/>
+      <c r="AS52" s="77"/>
+      <c r="AT52" s="77"/>
+      <c r="AU52" s="80"/>
+      <c r="AV52" s="80"/>
+      <c r="AW52" s="80"/>
+      <c r="AX52" s="80"/>
+      <c r="AY52" s="80"/>
+      <c r="AZ52" s="80"/>
+      <c r="BA52" s="80"/>
+      <c r="BB52" s="80"/>
+      <c r="BC52" s="80"/>
+      <c r="BD52" s="80"/>
+      <c r="BE52" s="80"/>
+      <c r="BF52" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="AO27:AT28"/>
-    <mergeCell ref="AU27:BF28"/>
-    <mergeCell ref="AO37:AT38"/>
-    <mergeCell ref="AU37:BF38"/>
-    <mergeCell ref="AO5:AT6"/>
-    <mergeCell ref="AU5:BF6"/>
-    <mergeCell ref="AO13:AT14"/>
-    <mergeCell ref="AO15:AT16"/>
-    <mergeCell ref="AO17:AT18"/>
-    <mergeCell ref="AO19:AT20"/>
-    <mergeCell ref="AU23:BF24"/>
-    <mergeCell ref="AO23:AT24"/>
-    <mergeCell ref="AO29:AT30"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="U1:AI1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AO1:AU1"/>
-    <mergeCell ref="BA1:BF1"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="U2:AI2"/>
-    <mergeCell ref="AJ2:AN2"/>
-    <mergeCell ref="AO2:AU2"/>
-    <mergeCell ref="AV2:AZ2"/>
-    <mergeCell ref="BA2:BF2"/>
-    <mergeCell ref="AV1:AZ1"/>
+    <mergeCell ref="AO49:AT50"/>
+    <mergeCell ref="AU49:BF50"/>
+    <mergeCell ref="AO51:AT52"/>
+    <mergeCell ref="AU51:BF52"/>
+    <mergeCell ref="AO43:AT44"/>
+    <mergeCell ref="AU43:BF44"/>
+    <mergeCell ref="AO45:AT46"/>
+    <mergeCell ref="AU45:BF46"/>
+    <mergeCell ref="AO47:AT48"/>
+    <mergeCell ref="AU47:BF48"/>
+    <mergeCell ref="AO39:AT40"/>
+    <mergeCell ref="AU29:BF30"/>
+    <mergeCell ref="AU39:BF40"/>
+    <mergeCell ref="AO41:AT42"/>
+    <mergeCell ref="AU41:BF42"/>
+    <mergeCell ref="AO33:AT34"/>
+    <mergeCell ref="AU33:BF34"/>
+    <mergeCell ref="AO31:AT32"/>
+    <mergeCell ref="AO35:AT36"/>
+    <mergeCell ref="AU35:BF36"/>
+    <mergeCell ref="AU31:BF32"/>
     <mergeCell ref="A3:AN3"/>
     <mergeCell ref="AU17:BF18"/>
     <mergeCell ref="AO25:AT26"/>
@@ -4445,27 +4440,32 @@
     <mergeCell ref="AU19:BF20"/>
     <mergeCell ref="AO9:AT10"/>
     <mergeCell ref="AO11:AT12"/>
-    <mergeCell ref="AO39:AT40"/>
-    <mergeCell ref="AU29:BF30"/>
-    <mergeCell ref="AU39:BF40"/>
-    <mergeCell ref="AO41:AT42"/>
-    <mergeCell ref="AU41:BF42"/>
-    <mergeCell ref="AO33:AT34"/>
-    <mergeCell ref="AU33:BF34"/>
-    <mergeCell ref="AO31:AT32"/>
-    <mergeCell ref="AO35:AT36"/>
-    <mergeCell ref="AU35:BF36"/>
-    <mergeCell ref="AU31:BF32"/>
-    <mergeCell ref="AO49:AT50"/>
-    <mergeCell ref="AU49:BF50"/>
-    <mergeCell ref="AO51:AT52"/>
-    <mergeCell ref="AU51:BF52"/>
-    <mergeCell ref="AO43:AT44"/>
-    <mergeCell ref="AU43:BF44"/>
-    <mergeCell ref="AO45:AT46"/>
-    <mergeCell ref="AU45:BF46"/>
-    <mergeCell ref="AO47:AT48"/>
-    <mergeCell ref="AU47:BF48"/>
+    <mergeCell ref="BA1:BF1"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="U2:AI2"/>
+    <mergeCell ref="AJ2:AN2"/>
+    <mergeCell ref="AO2:AU2"/>
+    <mergeCell ref="AV2:AZ2"/>
+    <mergeCell ref="BA2:BF2"/>
+    <mergeCell ref="AV1:AZ1"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="U1:AI1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AO1:AU1"/>
+    <mergeCell ref="AO27:AT28"/>
+    <mergeCell ref="AU27:BF28"/>
+    <mergeCell ref="AO37:AT38"/>
+    <mergeCell ref="AU37:BF38"/>
+    <mergeCell ref="AO5:AT6"/>
+    <mergeCell ref="AU5:BF6"/>
+    <mergeCell ref="AO13:AT14"/>
+    <mergeCell ref="AO15:AT16"/>
+    <mergeCell ref="AO17:AT18"/>
+    <mergeCell ref="AO19:AT20"/>
+    <mergeCell ref="AU23:BF24"/>
+    <mergeCell ref="AO23:AT24"/>
+    <mergeCell ref="AO29:AT30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
